--- a/Vodaphone not spots by constituency.xlsx
+++ b/Vodaphone not spots by constituency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guyweir/GIT/vodaphone-rural-poverty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11863D44-789E-8F46-80AC-9DB98CF779CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACEB801-FDBD-9742-81E5-F950D642F143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38920" yWindow="860" windowWidth="27280" windowHeight="18560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35080" yWindow="-180" windowWidth="27280" windowHeight="18560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$534</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1673,7 +1686,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1693,6 +1710,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1736,10 +1760,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1747,8 +1772,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2055,7 +2082,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="A1:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2116,7 +2143,7 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>107530</v>
       </c>
       <c r="F2">
@@ -2154,7 +2181,7 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>85618</v>
       </c>
       <c r="F3">
@@ -2192,7 +2219,7 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>84424</v>
       </c>
       <c r="F4">
@@ -2230,7 +2257,7 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>85370</v>
       </c>
       <c r="F5">
@@ -2268,7 +2295,7 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>84420</v>
       </c>
       <c r="F6">
@@ -2306,7 +2333,7 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>93023</v>
       </c>
       <c r="F7">
@@ -2344,7 +2371,7 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>103003</v>
       </c>
       <c r="F8">
@@ -2382,7 +2409,7 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>112204</v>
       </c>
       <c r="F9">
@@ -2420,7 +2447,7 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>102567</v>
       </c>
       <c r="F10">
@@ -2458,7 +2485,7 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>104039</v>
       </c>
       <c r="F11">
@@ -2496,7 +2523,7 @@
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>95461</v>
       </c>
       <c r="F12">
@@ -2534,7 +2561,7 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>75538</v>
       </c>
       <c r="F13">
@@ -2572,7 +2599,7 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>101035</v>
       </c>
       <c r="F14">
@@ -2610,7 +2637,7 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>98234</v>
       </c>
       <c r="F15">
@@ -2648,7 +2675,7 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>85309</v>
       </c>
       <c r="F16">
@@ -2686,7 +2713,7 @@
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>91560</v>
       </c>
       <c r="F17">
@@ -2724,7 +2751,7 @@
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>87666</v>
       </c>
       <c r="F18">
@@ -2762,7 +2789,7 @@
       <c r="D19">
         <v>4</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>101707</v>
       </c>
       <c r="F19">
@@ -2800,7 +2827,7 @@
       <c r="D20">
         <v>4</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>89492</v>
       </c>
       <c r="F20">
@@ -2838,7 +2865,7 @@
       <c r="D21">
         <v>4</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>111399</v>
       </c>
       <c r="F21">
@@ -2876,7 +2903,7 @@
       <c r="D22">
         <v>5</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>105022</v>
       </c>
       <c r="F22">
@@ -2914,7 +2941,7 @@
       <c r="D23">
         <v>5</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>100063</v>
       </c>
       <c r="F23">
@@ -2952,7 +2979,7 @@
       <c r="D24">
         <v>3</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>89911</v>
       </c>
       <c r="F24">
@@ -2990,7 +3017,7 @@
       <c r="D25">
         <v>5</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>98222</v>
       </c>
       <c r="F25">
@@ -3028,7 +3055,7 @@
       <c r="D26">
         <v>6</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>131349</v>
       </c>
       <c r="F26">
@@ -3066,7 +3093,7 @@
       <c r="D27">
         <v>4</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>88070</v>
       </c>
       <c r="F27">
@@ -3104,7 +3131,7 @@
       <c r="D28">
         <v>4</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>76514</v>
       </c>
       <c r="F28">
@@ -3142,7 +3169,7 @@
       <c r="D29">
         <v>4</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>116289</v>
       </c>
       <c r="F29">
@@ -3180,7 +3207,7 @@
       <c r="D30">
         <v>5</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>110157</v>
       </c>
       <c r="F30">
@@ -3218,7 +3245,7 @@
       <c r="D31">
         <v>7</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>104740</v>
       </c>
       <c r="F31">
@@ -3256,7 +3283,7 @@
       <c r="D32">
         <v>5</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>109481</v>
       </c>
       <c r="F32">
@@ -3294,7 +3321,7 @@
       <c r="D33">
         <v>7</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>105423</v>
       </c>
       <c r="F33">
@@ -3332,7 +3359,7 @@
       <c r="D34">
         <v>7</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>103125</v>
       </c>
       <c r="F34">
@@ -3370,7 +3397,7 @@
       <c r="D35">
         <v>6</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>100999</v>
       </c>
       <c r="F35">
@@ -3408,7 +3435,7 @@
       <c r="D36">
         <v>6</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>111376</v>
       </c>
       <c r="F36">
@@ -3446,7 +3473,7 @@
       <c r="D37">
         <v>9</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>111256</v>
       </c>
       <c r="F37">
@@ -3484,7 +3511,7 @@
       <c r="D38">
         <v>5</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>97544</v>
       </c>
       <c r="F38">
@@ -3522,7 +3549,7 @@
       <c r="D39">
         <v>6</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>98609</v>
       </c>
       <c r="F39">
@@ -3560,7 +3587,7 @@
       <c r="D40">
         <v>7</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>76400</v>
       </c>
       <c r="F40">
@@ -3598,7 +3625,7 @@
       <c r="D41">
         <v>10</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>114238</v>
       </c>
       <c r="F41">
@@ -3636,7 +3663,7 @@
       <c r="D42">
         <v>7</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>103813</v>
       </c>
       <c r="F42">
@@ -3674,7 +3701,7 @@
       <c r="D43">
         <v>6</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>97739</v>
       </c>
       <c r="F43">
@@ -3712,7 +3739,7 @@
       <c r="D44">
         <v>6</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>91350</v>
       </c>
       <c r="F44">
@@ -3750,7 +3777,7 @@
       <c r="D45">
         <v>8</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>76612</v>
       </c>
       <c r="F45">
@@ -3788,7 +3815,7 @@
       <c r="D46">
         <v>8</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>94314</v>
       </c>
       <c r="F46">
@@ -3826,7 +3853,7 @@
       <c r="D47">
         <v>10</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>117847</v>
       </c>
       <c r="F47">
@@ -3864,7 +3891,7 @@
       <c r="D48">
         <v>7</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>100718</v>
       </c>
       <c r="F48">
@@ -3902,7 +3929,7 @@
       <c r="D49">
         <v>15</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>108291</v>
       </c>
       <c r="F49">
@@ -3940,7 +3967,7 @@
       <c r="D50">
         <v>9</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>100272</v>
       </c>
       <c r="F50">
@@ -3978,7 +4005,7 @@
       <c r="D51">
         <v>10</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>103059</v>
       </c>
       <c r="F51">
@@ -4016,7 +4043,7 @@
       <c r="D52">
         <v>8</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>142816</v>
       </c>
       <c r="F52">
@@ -4054,7 +4081,7 @@
       <c r="D53">
         <v>10</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>99884</v>
       </c>
       <c r="F53">
@@ -4092,7 +4119,7 @@
       <c r="D54">
         <v>10</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>96431</v>
       </c>
       <c r="F54">
@@ -4130,7 +4157,7 @@
       <c r="D55">
         <v>8</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>105716</v>
       </c>
       <c r="F55">
@@ -4168,7 +4195,7 @@
       <c r="D56">
         <v>8</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>101498</v>
       </c>
       <c r="F56">
@@ -4206,7 +4233,7 @@
       <c r="D57">
         <v>9</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>104728</v>
       </c>
       <c r="F57">
@@ -4244,7 +4271,7 @@
       <c r="D58">
         <v>12</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>108870</v>
       </c>
       <c r="F58">
@@ -4282,7 +4309,7 @@
       <c r="D59">
         <v>12</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>102791</v>
       </c>
       <c r="F59">
@@ -4320,7 +4347,7 @@
       <c r="D60">
         <v>10</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <v>96570</v>
       </c>
       <c r="F60">
@@ -4358,7 +4385,7 @@
       <c r="D61">
         <v>11</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>114424</v>
       </c>
       <c r="F61">
@@ -4396,7 +4423,7 @@
       <c r="D62">
         <v>19</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>124507</v>
       </c>
       <c r="F62">
@@ -4434,7 +4461,7 @@
       <c r="D63">
         <v>8</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>107729</v>
       </c>
       <c r="F63">
@@ -4472,7 +4499,7 @@
       <c r="D64">
         <v>12</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>107403</v>
       </c>
       <c r="F64">
@@ -4510,7 +4537,7 @@
       <c r="D65">
         <v>14</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>107893</v>
       </c>
       <c r="F65">
@@ -4548,7 +4575,7 @@
       <c r="D66">
         <v>12</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <v>113168</v>
       </c>
       <c r="F66">
@@ -4586,7 +4613,7 @@
       <c r="D67">
         <v>15</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>113433</v>
       </c>
       <c r="F67">
@@ -4624,7 +4651,7 @@
       <c r="D68">
         <v>13</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <v>105807</v>
       </c>
       <c r="F68">
@@ -4662,7 +4689,7 @@
       <c r="D69">
         <v>20</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <v>115650</v>
       </c>
       <c r="F69">
@@ -4700,7 +4727,7 @@
       <c r="D70">
         <v>9</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <v>97188</v>
       </c>
       <c r="F70">
@@ -4738,7 +4765,7 @@
       <c r="D71">
         <v>12</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <v>103261</v>
       </c>
       <c r="F71">
@@ -4776,7 +4803,7 @@
       <c r="D72">
         <v>14</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <v>104293</v>
       </c>
       <c r="F72">
@@ -4814,7 +4841,7 @@
       <c r="D73">
         <v>15</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>125092</v>
       </c>
       <c r="F73">
@@ -4852,7 +4879,7 @@
       <c r="D74">
         <v>13</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <v>117444</v>
       </c>
       <c r="F74">
@@ -4890,7 +4917,7 @@
       <c r="D75">
         <v>9</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <v>103454</v>
       </c>
       <c r="F75">
@@ -4928,7 +4955,7 @@
       <c r="D76">
         <v>14</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>120778</v>
       </c>
       <c r="F76">
@@ -4966,7 +4993,7 @@
       <c r="D77">
         <v>16</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <v>114535</v>
       </c>
       <c r="F77">
@@ -5004,7 +5031,7 @@
       <c r="D78">
         <v>18</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <v>98191</v>
       </c>
       <c r="F78">
@@ -5042,7 +5069,7 @@
       <c r="D79">
         <v>9</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <v>87436</v>
       </c>
       <c r="F79">
@@ -5080,7 +5107,7 @@
       <c r="D80">
         <v>11</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <v>122261</v>
       </c>
       <c r="F80">
@@ -5118,7 +5145,7 @@
       <c r="D81">
         <v>13</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <v>136459</v>
       </c>
       <c r="F81">
@@ -5156,7 +5183,7 @@
       <c r="D82">
         <v>15</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <v>95568</v>
       </c>
       <c r="F82">
@@ -5194,7 +5221,7 @@
       <c r="D83">
         <v>16</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <v>98619</v>
       </c>
       <c r="F83">
@@ -5232,7 +5259,7 @@
       <c r="D84">
         <v>11</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <v>93747</v>
       </c>
       <c r="F84">
@@ -5270,7 +5297,7 @@
       <c r="D85">
         <v>18</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <v>118922</v>
       </c>
       <c r="F85">
@@ -5308,7 +5335,7 @@
       <c r="D86">
         <v>17</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="3">
         <v>98366</v>
       </c>
       <c r="F86">
@@ -5346,7 +5373,7 @@
       <c r="D87">
         <v>18</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <v>103053</v>
       </c>
       <c r="F87">
@@ -5384,7 +5411,7 @@
       <c r="D88">
         <v>17</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <v>111916</v>
       </c>
       <c r="F88">
@@ -5422,7 +5449,7 @@
       <c r="D89">
         <v>21</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <v>117994</v>
       </c>
       <c r="F89">
@@ -5460,7 +5487,7 @@
       <c r="D90">
         <v>11</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <v>110437</v>
       </c>
       <c r="F90">
@@ -5498,7 +5525,7 @@
       <c r="D91">
         <v>11</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>115177</v>
       </c>
       <c r="F91">
@@ -5536,7 +5563,7 @@
       <c r="D92">
         <v>17</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <v>85009</v>
       </c>
       <c r="F92">
@@ -5574,7 +5601,7 @@
       <c r="D93">
         <v>11</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <v>120843</v>
       </c>
       <c r="F93">
@@ -5612,7 +5639,7 @@
       <c r="D94">
         <v>19</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <v>123887</v>
       </c>
       <c r="F94">
@@ -5650,7 +5677,7 @@
       <c r="D95">
         <v>25</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <v>102279</v>
       </c>
       <c r="F95">
@@ -5688,7 +5715,7 @@
       <c r="D96">
         <v>18</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="3">
         <v>97231</v>
       </c>
       <c r="F96">
@@ -5726,7 +5753,7 @@
       <c r="D97">
         <v>13</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <v>104358</v>
       </c>
       <c r="F97">
@@ -5764,7 +5791,7 @@
       <c r="D98">
         <v>14</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <v>93518</v>
       </c>
       <c r="F98">
@@ -5802,7 +5829,7 @@
       <c r="D99">
         <v>12</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <v>78837</v>
       </c>
       <c r="F99">
@@ -5840,7 +5867,7 @@
       <c r="D100">
         <v>27</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <v>110903</v>
       </c>
       <c r="F100">
@@ -5878,7 +5905,7 @@
       <c r="D101">
         <v>15</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <v>122506</v>
       </c>
       <c r="F101">
@@ -5916,7 +5943,7 @@
       <c r="D102">
         <v>17</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="3">
         <v>104557</v>
       </c>
       <c r="F102">
@@ -5954,7 +5981,7 @@
       <c r="D103">
         <v>16</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="3">
         <v>98559</v>
       </c>
       <c r="F103">
@@ -5992,7 +6019,7 @@
       <c r="D104">
         <v>13</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="3">
         <v>122682</v>
       </c>
       <c r="F104">
@@ -6030,7 +6057,7 @@
       <c r="D105">
         <v>17</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="3">
         <v>90928</v>
       </c>
       <c r="F105">
@@ -6068,7 +6095,7 @@
       <c r="D106">
         <v>14</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="3">
         <v>99504</v>
       </c>
       <c r="F106">
@@ -6106,7 +6133,7 @@
       <c r="D107">
         <v>17</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="3">
         <v>113392</v>
       </c>
       <c r="F107">
@@ -6144,7 +6171,7 @@
       <c r="D108">
         <v>13</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="3">
         <v>98682</v>
       </c>
       <c r="F108">
@@ -6182,7 +6209,7 @@
       <c r="D109">
         <v>16</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="3">
         <v>104672</v>
       </c>
       <c r="F109">
@@ -6220,7 +6247,7 @@
       <c r="D110">
         <v>24</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="3">
         <v>92818</v>
       </c>
       <c r="F110">
@@ -6258,7 +6285,7 @@
       <c r="D111">
         <v>25</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="3">
         <v>100083</v>
       </c>
       <c r="F111">
@@ -6296,7 +6323,7 @@
       <c r="D112">
         <v>16</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="3">
         <v>129465</v>
       </c>
       <c r="F112">
@@ -6334,7 +6361,7 @@
       <c r="D113">
         <v>19</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="3">
         <v>88529</v>
       </c>
       <c r="F113">
@@ -6372,7 +6399,7 @@
       <c r="D114">
         <v>14</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="3">
         <v>89305</v>
       </c>
       <c r="F114">
@@ -6410,7 +6437,7 @@
       <c r="D115">
         <v>23</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="3">
         <v>97000</v>
       </c>
       <c r="F115">
@@ -6448,7 +6475,7 @@
       <c r="D116">
         <v>33</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="3">
         <v>100194</v>
       </c>
       <c r="F116">
@@ -6486,7 +6513,7 @@
       <c r="D117">
         <v>37</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="3">
         <v>96685</v>
       </c>
       <c r="F117">
@@ -6524,7 +6551,7 @@
       <c r="D118">
         <v>19</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="3">
         <v>109693</v>
       </c>
       <c r="F118">
@@ -6562,7 +6589,7 @@
       <c r="D119">
         <v>16</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="3">
         <v>101606</v>
       </c>
       <c r="F119">
@@ -6600,7 +6627,7 @@
       <c r="D120">
         <v>21</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="3">
         <v>112786</v>
       </c>
       <c r="F120">
@@ -6638,7 +6665,7 @@
       <c r="D121">
         <v>15</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="3">
         <v>95439</v>
       </c>
       <c r="F121">
@@ -6676,7 +6703,7 @@
       <c r="D122">
         <v>22</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="3">
         <v>115028</v>
       </c>
       <c r="F122">
@@ -6714,7 +6741,7 @@
       <c r="D123">
         <v>27</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="3">
         <v>89252</v>
       </c>
       <c r="F123">
@@ -6752,7 +6779,7 @@
       <c r="D124">
         <v>19</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="3">
         <v>102017</v>
       </c>
       <c r="F124">
@@ -6790,7 +6817,7 @@
       <c r="D125">
         <v>29</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="3">
         <v>113961</v>
       </c>
       <c r="F125">
@@ -6828,7 +6855,7 @@
       <c r="D126">
         <v>18</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="3">
         <v>127322</v>
       </c>
       <c r="F126">
@@ -6866,7 +6893,7 @@
       <c r="D127">
         <v>20</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="3">
         <v>95790</v>
       </c>
       <c r="F127">
@@ -6904,7 +6931,7 @@
       <c r="D128">
         <v>20</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="3">
         <v>107748</v>
       </c>
       <c r="F128">
@@ -6942,7 +6969,7 @@
       <c r="D129">
         <v>19</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="3">
         <v>113830</v>
       </c>
       <c r="F129">
@@ -6980,7 +7007,7 @@
       <c r="D130">
         <v>23</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="3">
         <v>90780</v>
       </c>
       <c r="F130">
@@ -7018,7 +7045,7 @@
       <c r="D131">
         <v>38</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="3">
         <v>105906</v>
       </c>
       <c r="F131">
@@ -7056,7 +7083,7 @@
       <c r="D132">
         <v>25</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="3">
         <v>122542</v>
       </c>
       <c r="F132">
@@ -7094,7 +7121,7 @@
       <c r="D133">
         <v>30</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="3">
         <v>95048</v>
       </c>
       <c r="F133">
@@ -7132,7 +7159,7 @@
       <c r="D134">
         <v>28</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="3">
         <v>101638</v>
       </c>
       <c r="F134">
@@ -7170,7 +7197,7 @@
       <c r="D135">
         <v>25</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="3">
         <v>99256</v>
       </c>
       <c r="F135">
@@ -7208,7 +7235,7 @@
       <c r="D136">
         <v>32</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="3">
         <v>104039</v>
       </c>
       <c r="F136">
@@ -7246,7 +7273,7 @@
       <c r="D137">
         <v>23</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="3">
         <v>90935</v>
       </c>
       <c r="F137">
@@ -7284,7 +7311,7 @@
       <c r="D138">
         <v>34</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="3">
         <v>112872</v>
       </c>
       <c r="F138">
@@ -7322,7 +7349,7 @@
       <c r="D139">
         <v>21</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="3">
         <v>100433</v>
       </c>
       <c r="F139">
@@ -7360,7 +7387,7 @@
       <c r="D140">
         <v>18</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="3">
         <v>90966</v>
       </c>
       <c r="F140">
@@ -7398,7 +7425,7 @@
       <c r="D141">
         <v>37</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="3">
         <v>115086</v>
       </c>
       <c r="F141">
@@ -7436,7 +7463,7 @@
       <c r="D142">
         <v>21</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="3">
         <v>97947</v>
       </c>
       <c r="F142">
@@ -7474,7 +7501,7 @@
       <c r="D143">
         <v>28</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="3">
         <v>99247</v>
       </c>
       <c r="F143">
@@ -7512,7 +7539,7 @@
       <c r="D144">
         <v>21</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="3">
         <v>113559</v>
       </c>
       <c r="F144">
@@ -7550,7 +7577,7 @@
       <c r="D145">
         <v>28</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="3">
         <v>106827</v>
       </c>
       <c r="F145">
@@ -7588,7 +7615,7 @@
       <c r="D146">
         <v>23</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="3">
         <v>105825</v>
       </c>
       <c r="F146">
@@ -7626,7 +7653,7 @@
       <c r="D147">
         <v>20</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="3">
         <v>140462</v>
       </c>
       <c r="F147">
@@ -7664,7 +7691,7 @@
       <c r="D148">
         <v>20</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="3">
         <v>99342</v>
       </c>
       <c r="F148">
@@ -7702,7 +7729,7 @@
       <c r="D149">
         <v>20</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="3">
         <v>93896</v>
       </c>
       <c r="F149">
@@ -7740,7 +7767,7 @@
       <c r="D150">
         <v>35</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="3">
         <v>106008</v>
       </c>
       <c r="F150">
@@ -7778,7 +7805,7 @@
       <c r="D151">
         <v>22</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="3">
         <v>93053</v>
       </c>
       <c r="F151">
@@ -7816,7 +7843,7 @@
       <c r="D152">
         <v>32</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="3">
         <v>111274</v>
       </c>
       <c r="F152">
@@ -7854,7 +7881,7 @@
       <c r="D153">
         <v>26</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="3">
         <v>100272</v>
       </c>
       <c r="F153">
@@ -7881,37 +7908,37 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B154" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C154">
         <v>26</v>
       </c>
       <c r="D154">
-        <v>22</v>
-      </c>
-      <c r="E154">
-        <v>102066</v>
+        <v>21</v>
+      </c>
+      <c r="E154" s="3">
+        <v>95757</v>
       </c>
       <c r="F154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G154">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="H154">
-        <v>0.99</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I154">
-        <v>99</v>
+        <v>98.75</v>
       </c>
       <c r="J154">
-        <v>25.25</v>
+        <v>23.7</v>
       </c>
       <c r="K154">
-        <v>74.75</v>
+        <v>76.3</v>
       </c>
       <c r="L154">
         <v>0</v>
@@ -7919,37 +7946,37 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B155" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C155">
         <v>26</v>
       </c>
       <c r="D155">
-        <v>21</v>
-      </c>
-      <c r="E155">
-        <v>95757</v>
+        <v>22</v>
+      </c>
+      <c r="E155" s="3">
+        <v>102066</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G155">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H155">
-        <v>1.1499999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="I155">
-        <v>98.75</v>
+        <v>99</v>
       </c>
       <c r="J155">
-        <v>23.7</v>
+        <v>25.25</v>
       </c>
       <c r="K155">
-        <v>76.3</v>
+        <v>74.75</v>
       </c>
       <c r="L155">
         <v>0</v>
@@ -7968,7 +7995,7 @@
       <c r="D156">
         <v>23</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="3">
         <v>99485</v>
       </c>
       <c r="F156">
@@ -8006,7 +8033,7 @@
       <c r="D157">
         <v>37</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="3">
         <v>87805</v>
       </c>
       <c r="F157">
@@ -8044,7 +8071,7 @@
       <c r="D158">
         <v>22</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="3">
         <v>99979</v>
       </c>
       <c r="F158">
@@ -8082,7 +8109,7 @@
       <c r="D159">
         <v>36</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="3">
         <v>68918</v>
       </c>
       <c r="F159">
@@ -8109,7 +8136,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B160" t="s">
         <v>38</v>
@@ -8118,28 +8145,28 @@
         <v>27</v>
       </c>
       <c r="D160">
-        <v>23</v>
-      </c>
-      <c r="E160">
-        <v>108413</v>
+        <v>22</v>
+      </c>
+      <c r="E160" s="3">
+        <v>109487</v>
       </c>
       <c r="F160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
       <c r="H160">
-        <v>0.83</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I160">
-        <v>99.17</v>
+        <v>98.91</v>
       </c>
       <c r="J160">
-        <v>22.2</v>
+        <v>13.84</v>
       </c>
       <c r="K160">
-        <v>77.8</v>
+        <v>86.16</v>
       </c>
       <c r="L160">
         <v>0</v>
@@ -8158,7 +8185,7 @@
       <c r="D161">
         <v>29</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="3">
         <v>89586</v>
       </c>
       <c r="F161">
@@ -8185,19 +8212,19 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B162" t="s">
         <v>38</v>
       </c>
       <c r="C162">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D162">
         <v>22</v>
       </c>
-      <c r="E162">
-        <v>109487</v>
+      <c r="E162" s="3">
+        <v>99750</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -8206,16 +8233,16 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>1.0900000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="I162">
-        <v>98.91</v>
+        <v>99.1</v>
       </c>
       <c r="J162">
-        <v>13.84</v>
+        <v>12.96</v>
       </c>
       <c r="K162">
-        <v>86.16</v>
+        <v>87.04</v>
       </c>
       <c r="L162">
         <v>0</v>
@@ -8234,7 +8261,7 @@
       <c r="D163">
         <v>25</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="3">
         <v>92870</v>
       </c>
       <c r="F163">
@@ -8272,7 +8299,7 @@
       <c r="D164">
         <v>24</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="3">
         <v>123862</v>
       </c>
       <c r="F164">
@@ -8310,7 +8337,7 @@
       <c r="D165">
         <v>39</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="3">
         <v>103753</v>
       </c>
       <c r="F165">
@@ -8348,7 +8375,7 @@
       <c r="D166">
         <v>30</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="3">
         <v>105014</v>
       </c>
       <c r="F166">
@@ -8386,7 +8413,7 @@
       <c r="D167">
         <v>36</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="3">
         <v>108440</v>
       </c>
       <c r="F167">
@@ -8424,7 +8451,7 @@
       <c r="D168">
         <v>36</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="3">
         <v>102051</v>
       </c>
       <c r="F168">
@@ -8462,7 +8489,7 @@
       <c r="D169">
         <v>37</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="3">
         <v>86504</v>
       </c>
       <c r="F169">
@@ -8500,7 +8527,7 @@
       <c r="D170">
         <v>27</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="3">
         <v>92173</v>
       </c>
       <c r="F170">
@@ -8538,7 +8565,7 @@
       <c r="D171">
         <v>26</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="3">
         <v>92089</v>
       </c>
       <c r="F171">
@@ -8576,7 +8603,7 @@
       <c r="D172">
         <v>31</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="3">
         <v>114159</v>
       </c>
       <c r="F172">
@@ -8614,7 +8641,7 @@
       <c r="D173">
         <v>24</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="3">
         <v>116652</v>
       </c>
       <c r="F173">
@@ -8652,7 +8679,7 @@
       <c r="D174">
         <v>28</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="3">
         <v>112529</v>
       </c>
       <c r="F174">
@@ -8679,37 +8706,37 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
         <v>38</v>
       </c>
       <c r="C175">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D175">
-        <v>22</v>
-      </c>
-      <c r="E175">
-        <v>99750</v>
+        <v>23</v>
+      </c>
+      <c r="E175" s="3">
+        <v>108413</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G175">
         <v>0</v>
       </c>
       <c r="H175">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="I175">
-        <v>99.1</v>
+        <v>99.17</v>
       </c>
       <c r="J175">
-        <v>12.96</v>
+        <v>22.2</v>
       </c>
       <c r="K175">
-        <v>87.04</v>
+        <v>77.8</v>
       </c>
       <c r="L175">
         <v>0</v>
@@ -8728,7 +8755,7 @@
       <c r="D176">
         <v>34</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="3">
         <v>115228</v>
       </c>
       <c r="F176">
@@ -8766,7 +8793,7 @@
       <c r="D177">
         <v>24</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="3">
         <v>99425</v>
       </c>
       <c r="F177">
@@ -8804,7 +8831,7 @@
       <c r="D178">
         <v>24</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="3">
         <v>93656</v>
       </c>
       <c r="F178">
@@ -8842,7 +8869,7 @@
       <c r="D179">
         <v>34</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="3">
         <v>96269</v>
       </c>
       <c r="F179">
@@ -8880,7 +8907,7 @@
       <c r="D180">
         <v>26</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="3">
         <v>100518</v>
       </c>
       <c r="F180">
@@ -8918,7 +8945,7 @@
       <c r="D181">
         <v>27</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="3">
         <v>90321</v>
       </c>
       <c r="F181">
@@ -8956,7 +8983,7 @@
       <c r="D182">
         <v>40</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="3">
         <v>103654</v>
       </c>
       <c r="F182">
@@ -8994,7 +9021,7 @@
       <c r="D183">
         <v>26</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="3">
         <v>88212</v>
       </c>
       <c r="F183">
@@ -9032,7 +9059,7 @@
       <c r="D184">
         <v>28</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="3">
         <v>99690</v>
       </c>
       <c r="F184">
@@ -9070,7 +9097,7 @@
       <c r="D185">
         <v>24</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="3">
         <v>101915</v>
       </c>
       <c r="F185">
@@ -9108,7 +9135,7 @@
       <c r="D186">
         <v>36</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="3">
         <v>103871</v>
       </c>
       <c r="F186">
@@ -9135,40 +9162,40 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B187" t="s">
         <v>44</v>
       </c>
       <c r="C187">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D187">
-        <v>26</v>
-      </c>
-      <c r="E187">
-        <v>85336</v>
+        <v>25</v>
+      </c>
+      <c r="E187" s="3">
+        <v>92337</v>
       </c>
       <c r="F187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
       <c r="H187">
-        <v>0.61</v>
+        <v>0.42</v>
       </c>
       <c r="I187">
-        <v>99.39</v>
+        <v>99.58</v>
       </c>
       <c r="J187">
-        <v>1.75</v>
+        <v>6.21</v>
       </c>
       <c r="K187">
-        <v>98.24</v>
+        <v>93.79</v>
       </c>
       <c r="L187">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -9184,7 +9211,7 @@
       <c r="D188">
         <v>33</v>
       </c>
-      <c r="E188">
+      <c r="E188" s="3">
         <v>99973</v>
       </c>
       <c r="F188">
@@ -9211,19 +9238,19 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B189" t="s">
         <v>44</v>
       </c>
       <c r="C189">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D189">
-        <v>27</v>
-      </c>
-      <c r="E189">
-        <v>102566</v>
+        <v>26</v>
+      </c>
+      <c r="E189" s="3">
+        <v>85336</v>
       </c>
       <c r="F189">
         <v>2</v>
@@ -9232,19 +9259,19 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>0.3</v>
+        <v>0.61</v>
       </c>
       <c r="I189">
-        <v>99.7</v>
+        <v>99.39</v>
       </c>
       <c r="J189">
-        <v>5.9</v>
+        <v>1.75</v>
       </c>
       <c r="K189">
-        <v>94.1</v>
+        <v>98.24</v>
       </c>
       <c r="L189">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -9260,7 +9287,7 @@
       <c r="D190">
         <v>32</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="3">
         <v>118491</v>
       </c>
       <c r="F190">
@@ -9298,7 +9325,7 @@
       <c r="D191">
         <v>33</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="3">
         <v>109242</v>
       </c>
       <c r="F191">
@@ -9336,7 +9363,7 @@
       <c r="D192">
         <v>34</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="3">
         <v>102316</v>
       </c>
       <c r="F192">
@@ -9374,7 +9401,7 @@
       <c r="D193">
         <v>32</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="3">
         <v>92980</v>
       </c>
       <c r="F193">
@@ -9412,7 +9439,7 @@
       <c r="D194">
         <v>26</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="3">
         <v>110476</v>
       </c>
       <c r="F194">
@@ -9450,7 +9477,7 @@
       <c r="D195">
         <v>31</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="3">
         <v>110146</v>
       </c>
       <c r="F195">
@@ -9477,19 +9504,19 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B196" t="s">
         <v>44</v>
       </c>
       <c r="C196">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D196">
-        <v>29</v>
-      </c>
-      <c r="E196">
-        <v>90621</v>
+        <v>27</v>
+      </c>
+      <c r="E196" s="3">
+        <v>102566</v>
       </c>
       <c r="F196">
         <v>2</v>
@@ -9498,16 +9525,16 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I196">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J196">
-        <v>11.95</v>
+        <v>5.9</v>
       </c>
       <c r="K196">
-        <v>88.05</v>
+        <v>94.1</v>
       </c>
       <c r="L196">
         <v>0</v>
@@ -9515,37 +9542,37 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B197" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C197">
         <v>33</v>
       </c>
       <c r="D197">
-        <v>25</v>
-      </c>
-      <c r="E197">
-        <v>92337</v>
+        <v>27</v>
+      </c>
+      <c r="E197" s="3">
+        <v>85659</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G197">
         <v>0</v>
       </c>
       <c r="H197">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="I197">
-        <v>99.58</v>
+        <v>99.7</v>
       </c>
       <c r="J197">
-        <v>6.21</v>
+        <v>41.46</v>
       </c>
       <c r="K197">
-        <v>93.79</v>
+        <v>58.54</v>
       </c>
       <c r="L197">
         <v>0</v>
@@ -9564,7 +9591,7 @@
       <c r="D198">
         <v>28</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="3">
         <v>99622</v>
       </c>
       <c r="F198">
@@ -9591,19 +9618,19 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C199">
         <v>33</v>
       </c>
       <c r="D199">
-        <v>27</v>
-      </c>
-      <c r="E199">
-        <v>85659</v>
+        <v>29</v>
+      </c>
+      <c r="E199" s="3">
+        <v>90621</v>
       </c>
       <c r="F199">
         <v>2</v>
@@ -9612,16 +9639,16 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I199">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J199">
-        <v>41.46</v>
+        <v>11.95</v>
       </c>
       <c r="K199">
-        <v>58.54</v>
+        <v>88.05</v>
       </c>
       <c r="L199">
         <v>0</v>
@@ -9629,37 +9656,37 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B200" t="s">
         <v>44</v>
       </c>
       <c r="C200">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D200">
-        <v>30</v>
-      </c>
-      <c r="E200">
-        <v>95007</v>
+        <v>29</v>
+      </c>
+      <c r="E200" s="3">
+        <v>94647</v>
       </c>
       <c r="F200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G200">
         <v>0</v>
       </c>
       <c r="H200">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="I200">
-        <v>99.89</v>
+        <v>99.75</v>
       </c>
       <c r="J200">
-        <v>13.36</v>
+        <v>12.07</v>
       </c>
       <c r="K200">
-        <v>86.64</v>
+        <v>87.93</v>
       </c>
       <c r="L200">
         <v>0</v>
@@ -9678,7 +9705,7 @@
       <c r="D201">
         <v>36</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="3">
         <v>88688</v>
       </c>
       <c r="F201">
@@ -9705,37 +9732,37 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B202" t="s">
         <v>44</v>
       </c>
       <c r="C202">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D202">
-        <v>31</v>
-      </c>
-      <c r="E202">
-        <v>117367</v>
+        <v>29</v>
+      </c>
+      <c r="E202" s="3">
+        <v>94357</v>
       </c>
       <c r="F202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G202">
         <v>0</v>
       </c>
       <c r="H202">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I202">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="J202">
-        <v>3.77</v>
+        <v>0.36</v>
       </c>
       <c r="K202">
-        <v>96.23</v>
+        <v>99.64</v>
       </c>
       <c r="L202">
         <v>0</v>
@@ -9743,37 +9770,37 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B203" t="s">
         <v>44</v>
       </c>
       <c r="C203">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D203">
-        <v>31</v>
-      </c>
-      <c r="E203">
-        <v>109120</v>
+        <v>29</v>
+      </c>
+      <c r="E203" s="3">
+        <v>81513</v>
       </c>
       <c r="F203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
       <c r="H203">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="I203">
-        <v>99.92</v>
+        <v>99.82</v>
       </c>
       <c r="J203">
-        <v>0</v>
+        <v>20.67</v>
       </c>
       <c r="K203">
-        <v>100</v>
+        <v>79.33</v>
       </c>
       <c r="L203">
         <v>0</v>
@@ -9792,7 +9819,7 @@
       <c r="D204">
         <v>34</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="3">
         <v>110604</v>
       </c>
       <c r="F204">
@@ -9819,19 +9846,19 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B205" t="s">
         <v>44</v>
       </c>
       <c r="C205">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D205">
-        <v>31</v>
-      </c>
-      <c r="E205">
-        <v>104890</v>
+        <v>30</v>
+      </c>
+      <c r="E205" s="3">
+        <v>95007</v>
       </c>
       <c r="F205">
         <v>2</v>
@@ -9846,10 +9873,10 @@
         <v>99.89</v>
       </c>
       <c r="J205">
-        <v>0.33</v>
+        <v>13.36</v>
       </c>
       <c r="K205">
-        <v>99.67</v>
+        <v>86.64</v>
       </c>
       <c r="L205">
         <v>0</v>
@@ -9857,7 +9884,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B206" t="s">
         <v>44</v>
@@ -9866,10 +9893,10 @@
         <v>35</v>
       </c>
       <c r="D206">
-        <v>35</v>
-      </c>
-      <c r="E206">
-        <v>105921</v>
+        <v>30</v>
+      </c>
+      <c r="E206" s="3">
+        <v>102937</v>
       </c>
       <c r="F206">
         <v>2</v>
@@ -9878,16 +9905,16 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="I206">
-        <v>100</v>
+        <v>99.83</v>
       </c>
       <c r="J206">
-        <v>10.57</v>
+        <v>8.82</v>
       </c>
       <c r="K206">
-        <v>89.43</v>
+        <v>91.18</v>
       </c>
       <c r="L206">
         <v>0</v>
@@ -9895,37 +9922,37 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B207" t="s">
         <v>44</v>
       </c>
       <c r="C207">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D207">
         <v>30</v>
       </c>
-      <c r="E207">
-        <v>102937</v>
+      <c r="E207" s="3">
+        <v>109294</v>
       </c>
       <c r="F207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G207">
         <v>0</v>
       </c>
       <c r="H207">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I207">
-        <v>99.83</v>
+        <v>99.85</v>
       </c>
       <c r="J207">
-        <v>8.82</v>
+        <v>14.39</v>
       </c>
       <c r="K207">
-        <v>91.18</v>
+        <v>85.61</v>
       </c>
       <c r="L207">
         <v>0</v>
@@ -9933,37 +9960,37 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B208" t="s">
         <v>44</v>
       </c>
       <c r="C208">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D208">
-        <v>32</v>
-      </c>
-      <c r="E208">
-        <v>92194</v>
+        <v>30</v>
+      </c>
+      <c r="E208" s="3">
+        <v>94023</v>
       </c>
       <c r="F208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G208">
         <v>0</v>
       </c>
       <c r="H208">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="I208">
-        <v>99.96</v>
+        <v>99.88</v>
       </c>
       <c r="J208">
-        <v>8.74</v>
+        <v>11.66</v>
       </c>
       <c r="K208">
-        <v>91.26</v>
+        <v>88.34</v>
       </c>
       <c r="L208">
         <v>0</v>
@@ -9971,37 +9998,37 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B209" t="s">
         <v>44</v>
       </c>
       <c r="C209">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D209">
-        <v>29</v>
-      </c>
-      <c r="E209">
-        <v>94647</v>
+        <v>31</v>
+      </c>
+      <c r="E209" s="3">
+        <v>117367</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G209">
         <v>0</v>
       </c>
       <c r="H209">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I209">
-        <v>99.75</v>
+        <v>99.9</v>
       </c>
       <c r="J209">
-        <v>12.07</v>
+        <v>3.77</v>
       </c>
       <c r="K209">
-        <v>87.93</v>
+        <v>96.23</v>
       </c>
       <c r="L209">
         <v>0</v>
@@ -10009,19 +10036,19 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B210" t="s">
         <v>44</v>
       </c>
       <c r="C210">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D210">
-        <v>35</v>
-      </c>
-      <c r="E210">
-        <v>114821</v>
+        <v>31</v>
+      </c>
+      <c r="E210" s="3">
+        <v>109120</v>
       </c>
       <c r="F210">
         <v>2</v>
@@ -10030,16 +10057,16 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="I210">
+        <v>99.92</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
         <v>100</v>
-      </c>
-      <c r="J210">
-        <v>1.6</v>
-      </c>
-      <c r="K210">
-        <v>98.4</v>
       </c>
       <c r="L210">
         <v>0</v>
@@ -10047,19 +10074,19 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B211" t="s">
         <v>44</v>
       </c>
       <c r="C211">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D211">
         <v>31</v>
       </c>
-      <c r="E211">
-        <v>104490</v>
+      <c r="E211" s="3">
+        <v>104890</v>
       </c>
       <c r="F211">
         <v>2</v>
@@ -10068,16 +10095,16 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I211">
-        <v>99.94</v>
+        <v>99.89</v>
       </c>
       <c r="J211">
-        <v>1.98</v>
+        <v>0.33</v>
       </c>
       <c r="K211">
-        <v>98.02</v>
+        <v>99.67</v>
       </c>
       <c r="L211">
         <v>0</v>
@@ -10085,7 +10112,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B212" t="s">
         <v>44</v>
@@ -10094,28 +10121,28 @@
         <v>36</v>
       </c>
       <c r="D212">
-        <v>29</v>
-      </c>
-      <c r="E212">
-        <v>94357</v>
+        <v>31</v>
+      </c>
+      <c r="E212" s="3">
+        <v>104490</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G212">
         <v>0</v>
       </c>
       <c r="H212">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="I212">
-        <v>99.8</v>
+        <v>99.94</v>
       </c>
       <c r="J212">
-        <v>0.36</v>
+        <v>1.98</v>
       </c>
       <c r="K212">
-        <v>99.64</v>
+        <v>98.02</v>
       </c>
       <c r="L212">
         <v>0</v>
@@ -10123,37 +10150,37 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B213" t="s">
         <v>44</v>
       </c>
       <c r="C213">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D213">
-        <v>30</v>
-      </c>
-      <c r="E213">
-        <v>109294</v>
+        <v>32</v>
+      </c>
+      <c r="E213" s="3">
+        <v>92194</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G213">
         <v>0</v>
       </c>
       <c r="H213">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="I213">
-        <v>99.85</v>
+        <v>99.96</v>
       </c>
       <c r="J213">
-        <v>14.39</v>
+        <v>8.74</v>
       </c>
       <c r="K213">
-        <v>85.61</v>
+        <v>91.26</v>
       </c>
       <c r="L213">
         <v>0</v>
@@ -10161,19 +10188,19 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B214" t="s">
         <v>44</v>
       </c>
       <c r="C214">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D214">
-        <v>30</v>
-      </c>
-      <c r="E214">
-        <v>94023</v>
+        <v>32</v>
+      </c>
+      <c r="E214" s="3">
+        <v>131148</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -10182,16 +10209,16 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="I214">
-        <v>99.88</v>
+        <v>99.95</v>
       </c>
       <c r="J214">
-        <v>11.66</v>
+        <v>2.77</v>
       </c>
       <c r="K214">
-        <v>88.34</v>
+        <v>97.23</v>
       </c>
       <c r="L214">
         <v>0</v>
@@ -10210,7 +10237,7 @@
       <c r="D215">
         <v>33</v>
       </c>
-      <c r="E215">
+      <c r="E215" s="3">
         <v>100171</v>
       </c>
       <c r="F215">
@@ -10237,7 +10264,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B216" t="s">
         <v>44</v>
@@ -10246,10 +10273,10 @@
         <v>37</v>
       </c>
       <c r="D216">
-        <v>29</v>
-      </c>
-      <c r="E216">
-        <v>81513</v>
+        <v>33</v>
+      </c>
+      <c r="E216" s="3">
+        <v>90557</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -10258,16 +10285,16 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>99.82</v>
+        <v>100</v>
       </c>
       <c r="J216">
-        <v>20.67</v>
+        <v>0.85</v>
       </c>
       <c r="K216">
-        <v>79.33</v>
+        <v>99.15</v>
       </c>
       <c r="L216">
         <v>0</v>
@@ -10275,7 +10302,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B217" t="s">
         <v>44</v>
@@ -10284,10 +10311,10 @@
         <v>37</v>
       </c>
       <c r="D217">
-        <v>32</v>
-      </c>
-      <c r="E217">
-        <v>131148</v>
+        <v>33</v>
+      </c>
+      <c r="E217" s="3">
+        <v>82875</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -10296,16 +10323,16 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I217">
-        <v>99.95</v>
+        <v>99.99</v>
       </c>
       <c r="J217">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="K217">
-        <v>97.23</v>
+        <v>100</v>
       </c>
       <c r="L217">
         <v>0</v>
@@ -10313,22 +10340,22 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B218" t="s">
         <v>44</v>
       </c>
       <c r="C218">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D218">
-        <v>33</v>
-      </c>
-      <c r="E218">
-        <v>90557</v>
+        <v>35</v>
+      </c>
+      <c r="E218" s="3">
+        <v>105921</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -10340,10 +10367,10 @@
         <v>100</v>
       </c>
       <c r="J218">
-        <v>0.85</v>
+        <v>10.57</v>
       </c>
       <c r="K218">
-        <v>99.15</v>
+        <v>89.43</v>
       </c>
       <c r="L218">
         <v>0</v>
@@ -10351,37 +10378,37 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B219" t="s">
         <v>44</v>
       </c>
       <c r="C219">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D219">
-        <v>33</v>
-      </c>
-      <c r="E219">
-        <v>82875</v>
+        <v>35</v>
+      </c>
+      <c r="E219" s="3">
+        <v>114821</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G219">
         <v>0</v>
       </c>
       <c r="H219">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>99.99</v>
+        <v>100</v>
       </c>
       <c r="J219">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K219">
-        <v>100</v>
+        <v>98.4</v>
       </c>
       <c r="L219">
         <v>0</v>
@@ -10400,7 +10427,7 @@
       <c r="D220">
         <v>35</v>
       </c>
-      <c r="E220">
+      <c r="E220" s="3">
         <v>86152</v>
       </c>
       <c r="F220">
@@ -10438,7 +10465,7 @@
       <c r="D221">
         <v>35</v>
       </c>
-      <c r="E221">
+      <c r="E221" s="3">
         <v>95944</v>
       </c>
       <c r="F221">
@@ -10476,7 +10503,7 @@
       <c r="D222">
         <v>38</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="3">
         <v>114982</v>
       </c>
       <c r="F222">
@@ -10514,7 +10541,7 @@
       <c r="D223">
         <v>37</v>
       </c>
-      <c r="E223">
+      <c r="E223" s="3">
         <v>99352</v>
       </c>
       <c r="F223">
@@ -10552,7 +10579,7 @@
       <c r="D224">
         <v>39</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="3">
         <v>104702</v>
       </c>
       <c r="F224">
@@ -10590,7 +10617,7 @@
       <c r="D225">
         <v>40</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="3">
         <v>96657</v>
       </c>
       <c r="F225">
@@ -10628,7 +10655,7 @@
       <c r="D226">
         <v>40</v>
       </c>
-      <c r="E226">
+      <c r="E226" s="3">
         <v>109141</v>
       </c>
       <c r="F226">
@@ -10666,7 +10693,7 @@
       <c r="D227">
         <v>38</v>
       </c>
-      <c r="E227">
+      <c r="E227" s="3">
         <v>104376</v>
       </c>
       <c r="F227">
@@ -10704,7 +10731,7 @@
       <c r="D228">
         <v>38</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="3">
         <v>101713</v>
       </c>
       <c r="F228">
@@ -10742,7 +10769,7 @@
       <c r="D229">
         <v>38</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="3">
         <v>105433</v>
       </c>
       <c r="F229">
@@ -10780,7 +10807,7 @@
       <c r="D230">
         <v>39</v>
       </c>
-      <c r="E230">
+      <c r="E230" s="3">
         <v>97516</v>
       </c>
       <c r="F230">
@@ -10818,7 +10845,7 @@
       <c r="D231">
         <v>39</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="3">
         <v>115816</v>
       </c>
       <c r="F231">
@@ -10856,7 +10883,7 @@
       <c r="D232">
         <v>40</v>
       </c>
-      <c r="E232">
+      <c r="E232" s="3">
         <v>104186</v>
       </c>
       <c r="F232">
@@ -10894,7 +10921,7 @@
       <c r="D233">
         <v>39</v>
       </c>
-      <c r="E233">
+      <c r="E233" s="3">
         <v>118259</v>
       </c>
       <c r="F233">
@@ -10932,7 +10959,7 @@
       <c r="D234">
         <v>40</v>
       </c>
-      <c r="E234">
+      <c r="E234" s="3">
         <v>99943</v>
       </c>
       <c r="F234">
@@ -10970,7 +10997,7 @@
       <c r="D235">
         <v>41</v>
       </c>
-      <c r="E235">
+      <c r="E235" s="3">
         <v>123013</v>
       </c>
       <c r="F235">
@@ -11008,7 +11035,7 @@
       <c r="D236">
         <v>41</v>
       </c>
-      <c r="E236">
+      <c r="E236" s="3">
         <v>99623</v>
       </c>
       <c r="F236">
@@ -11046,7 +11073,7 @@
       <c r="D237">
         <v>41</v>
       </c>
-      <c r="E237">
+      <c r="E237" s="3">
         <v>80827</v>
       </c>
       <c r="F237">
@@ -11084,7 +11111,7 @@
       <c r="D238">
         <v>41</v>
       </c>
-      <c r="E238">
+      <c r="E238" s="3">
         <v>133745</v>
       </c>
       <c r="F238">
@@ -11122,7 +11149,7 @@
       <c r="D239">
         <v>41</v>
       </c>
-      <c r="E239">
+      <c r="E239" s="3">
         <v>107581</v>
       </c>
       <c r="F239">
@@ -11160,7 +11187,7 @@
       <c r="D240">
         <v>42</v>
       </c>
-      <c r="E240">
+      <c r="E240" s="3">
         <v>107948</v>
       </c>
       <c r="F240">
@@ -11198,7 +11225,7 @@
       <c r="D241">
         <v>42</v>
       </c>
-      <c r="E241">
+      <c r="E241" s="3">
         <v>91946</v>
       </c>
       <c r="F241">
@@ -11236,7 +11263,7 @@
       <c r="D242">
         <v>42</v>
       </c>
-      <c r="E242">
+      <c r="E242" s="3">
         <v>108057</v>
       </c>
       <c r="F242">
@@ -11274,7 +11301,7 @@
       <c r="D243">
         <v>42</v>
       </c>
-      <c r="E243">
+      <c r="E243" s="3">
         <v>114194</v>
       </c>
       <c r="F243">
@@ -11312,7 +11339,7 @@
       <c r="D244">
         <v>43</v>
       </c>
-      <c r="E244">
+      <c r="E244" s="3">
         <v>94165</v>
       </c>
       <c r="F244">
@@ -11350,7 +11377,7 @@
       <c r="D245">
         <v>42</v>
       </c>
-      <c r="E245">
+      <c r="E245" s="3">
         <v>100236</v>
       </c>
       <c r="F245">
@@ -11388,7 +11415,7 @@
       <c r="D246">
         <v>43</v>
       </c>
-      <c r="E246">
+      <c r="E246" s="3">
         <v>111573</v>
       </c>
       <c r="F246">
@@ -11426,7 +11453,7 @@
       <c r="D247">
         <v>43</v>
       </c>
-      <c r="E247">
+      <c r="E247" s="3">
         <v>115301</v>
       </c>
       <c r="F247">
@@ -11464,7 +11491,7 @@
       <c r="D248">
         <v>43</v>
       </c>
-      <c r="E248">
+      <c r="E248" s="3">
         <v>91857</v>
       </c>
       <c r="F248">
@@ -11502,7 +11529,7 @@
       <c r="D249">
         <v>43</v>
       </c>
-      <c r="E249">
+      <c r="E249" s="3">
         <v>99384</v>
       </c>
       <c r="F249">
@@ -11540,7 +11567,7 @@
       <c r="D250">
         <v>44</v>
       </c>
-      <c r="E250">
+      <c r="E250" s="3">
         <v>90365</v>
       </c>
       <c r="F250">
@@ -11578,7 +11605,7 @@
       <c r="D251">
         <v>44</v>
       </c>
-      <c r="E251">
+      <c r="E251" s="3">
         <v>102573</v>
       </c>
       <c r="F251">
@@ -11616,7 +11643,7 @@
       <c r="D252">
         <v>44</v>
       </c>
-      <c r="E252">
+      <c r="E252" s="3">
         <v>97627</v>
       </c>
       <c r="F252">
@@ -11654,7 +11681,7 @@
       <c r="D253">
         <v>44</v>
       </c>
-      <c r="E253">
+      <c r="E253" s="3">
         <v>97355</v>
       </c>
       <c r="F253">
@@ -11692,7 +11719,7 @@
       <c r="D254">
         <v>44</v>
       </c>
-      <c r="E254">
+      <c r="E254" s="3">
         <v>93649</v>
       </c>
       <c r="F254">
@@ -11730,7 +11757,7 @@
       <c r="D255">
         <v>45</v>
       </c>
-      <c r="E255">
+      <c r="E255" s="3">
         <v>111620</v>
       </c>
       <c r="F255">
@@ -11768,7 +11795,7 @@
       <c r="D256">
         <v>45</v>
       </c>
-      <c r="E256">
+      <c r="E256" s="3">
         <v>103170</v>
       </c>
       <c r="F256">
@@ -11806,7 +11833,7 @@
       <c r="D257">
         <v>45</v>
       </c>
-      <c r="E257">
+      <c r="E257" s="3">
         <v>100018</v>
       </c>
       <c r="F257">
@@ -11844,7 +11871,7 @@
       <c r="D258">
         <v>45</v>
       </c>
-      <c r="E258">
+      <c r="E258" s="3">
         <v>77656</v>
       </c>
       <c r="F258">
@@ -11882,7 +11909,7 @@
       <c r="D259">
         <v>45</v>
       </c>
-      <c r="E259">
+      <c r="E259" s="3">
         <v>95380</v>
       </c>
       <c r="F259">
@@ -11920,7 +11947,7 @@
       <c r="D260">
         <v>46</v>
       </c>
-      <c r="E260">
+      <c r="E260" s="3">
         <v>80372</v>
       </c>
       <c r="F260">
@@ -11958,7 +11985,7 @@
       <c r="D261">
         <v>46</v>
       </c>
-      <c r="E261">
+      <c r="E261" s="3">
         <v>108037</v>
       </c>
       <c r="F261">
@@ -11996,7 +12023,7 @@
       <c r="D262">
         <v>46</v>
       </c>
-      <c r="E262">
+      <c r="E262" s="3">
         <v>115316</v>
       </c>
       <c r="F262">
@@ -12034,7 +12061,7 @@
       <c r="D263">
         <v>46</v>
       </c>
-      <c r="E263">
+      <c r="E263" s="3">
         <v>99107</v>
       </c>
       <c r="F263">
@@ -12072,7 +12099,7 @@
       <c r="D264">
         <v>46</v>
       </c>
-      <c r="E264">
+      <c r="E264" s="3">
         <v>110690</v>
       </c>
       <c r="F264">
@@ -12110,7 +12137,7 @@
       <c r="D265">
         <v>47</v>
       </c>
-      <c r="E265">
+      <c r="E265" s="3">
         <v>88442</v>
       </c>
       <c r="F265">
@@ -12148,7 +12175,7 @@
       <c r="D266">
         <v>47</v>
       </c>
-      <c r="E266">
+      <c r="E266" s="3">
         <v>107125</v>
       </c>
       <c r="F266">
@@ -12186,7 +12213,7 @@
       <c r="D267">
         <v>47</v>
       </c>
-      <c r="E267">
+      <c r="E267" s="3">
         <v>92625</v>
       </c>
       <c r="F267">
@@ -12224,7 +12251,7 @@
       <c r="D268">
         <v>47</v>
       </c>
-      <c r="E268">
+      <c r="E268" s="3">
         <v>121220</v>
       </c>
       <c r="F268">
@@ -12262,7 +12289,7 @@
       <c r="D269">
         <v>47</v>
       </c>
-      <c r="E269">
+      <c r="E269" s="3">
         <v>114014</v>
       </c>
       <c r="F269">
@@ -12300,7 +12327,7 @@
       <c r="D270">
         <v>48</v>
       </c>
-      <c r="E270">
+      <c r="E270" s="3">
         <v>89720</v>
       </c>
       <c r="F270">
@@ -12338,7 +12365,7 @@
       <c r="D271">
         <v>48</v>
       </c>
-      <c r="E271">
+      <c r="E271" s="3">
         <v>119495</v>
       </c>
       <c r="F271">
@@ -12376,7 +12403,7 @@
       <c r="D272">
         <v>48</v>
       </c>
-      <c r="E272">
+      <c r="E272" s="3">
         <v>120031</v>
       </c>
       <c r="F272">
@@ -12414,7 +12441,7 @@
       <c r="D273">
         <v>48</v>
       </c>
-      <c r="E273">
+      <c r="E273" s="3">
         <v>100927</v>
       </c>
       <c r="F273">
@@ -12452,7 +12479,7 @@
       <c r="D274">
         <v>48</v>
       </c>
-      <c r="E274">
+      <c r="E274" s="3">
         <v>95969</v>
       </c>
       <c r="F274">
@@ -12490,7 +12517,7 @@
       <c r="D275">
         <v>49</v>
       </c>
-      <c r="E275">
+      <c r="E275" s="3">
         <v>84408</v>
       </c>
       <c r="F275">
@@ -12528,7 +12555,7 @@
       <c r="D276">
         <v>49</v>
       </c>
-      <c r="E276">
+      <c r="E276" s="3">
         <v>91925</v>
       </c>
       <c r="F276">
@@ -12566,7 +12593,7 @@
       <c r="D277">
         <v>49</v>
       </c>
-      <c r="E277">
+      <c r="E277" s="3">
         <v>95337</v>
       </c>
       <c r="F277">
@@ -12604,7 +12631,7 @@
       <c r="D278">
         <v>49</v>
       </c>
-      <c r="E278">
+      <c r="E278" s="3">
         <v>90477</v>
       </c>
       <c r="F278">
@@ -12642,7 +12669,7 @@
       <c r="D279">
         <v>49</v>
       </c>
-      <c r="E279">
+      <c r="E279" s="3">
         <v>103207</v>
       </c>
       <c r="F279">
@@ -12680,7 +12707,7 @@
       <c r="D280">
         <v>50</v>
       </c>
-      <c r="E280">
+      <c r="E280" s="3">
         <v>107580</v>
       </c>
       <c r="F280">
@@ -12718,7 +12745,7 @@
       <c r="D281">
         <v>50</v>
       </c>
-      <c r="E281">
+      <c r="E281" s="3">
         <v>93663</v>
       </c>
       <c r="F281">
@@ -12756,7 +12783,7 @@
       <c r="D282">
         <v>50</v>
       </c>
-      <c r="E282">
+      <c r="E282" s="3">
         <v>96959</v>
       </c>
       <c r="F282">
@@ -12794,7 +12821,7 @@
       <c r="D283">
         <v>50</v>
       </c>
-      <c r="E283">
+      <c r="E283" s="3">
         <v>81590</v>
       </c>
       <c r="F283">
@@ -12832,7 +12859,7 @@
       <c r="D284">
         <v>50</v>
       </c>
-      <c r="E284">
+      <c r="E284" s="3">
         <v>81001</v>
       </c>
       <c r="F284">
@@ -12870,7 +12897,7 @@
       <c r="D285">
         <v>51</v>
       </c>
-      <c r="E285">
+      <c r="E285" s="3">
         <v>104740</v>
       </c>
       <c r="F285">
@@ -12908,7 +12935,7 @@
       <c r="D286">
         <v>51</v>
       </c>
-      <c r="E286">
+      <c r="E286" s="3">
         <v>98834</v>
       </c>
       <c r="F286">
@@ -12946,7 +12973,7 @@
       <c r="D287">
         <v>51</v>
       </c>
-      <c r="E287">
+      <c r="E287" s="3">
         <v>88741</v>
       </c>
       <c r="F287">
@@ -12984,7 +13011,7 @@
       <c r="D288">
         <v>51</v>
       </c>
-      <c r="E288">
+      <c r="E288" s="3">
         <v>109388</v>
       </c>
       <c r="F288">
@@ -13022,7 +13049,7 @@
       <c r="D289">
         <v>51</v>
       </c>
-      <c r="E289">
+      <c r="E289" s="3">
         <v>91396</v>
       </c>
       <c r="F289">
@@ -13060,7 +13087,7 @@
       <c r="D290">
         <v>52</v>
       </c>
-      <c r="E290">
+      <c r="E290" s="3">
         <v>104148</v>
       </c>
       <c r="F290">
@@ -13098,7 +13125,7 @@
       <c r="D291">
         <v>52</v>
       </c>
-      <c r="E291">
+      <c r="E291" s="3">
         <v>92583</v>
       </c>
       <c r="F291">
@@ -13136,7 +13163,7 @@
       <c r="D292">
         <v>52</v>
       </c>
-      <c r="E292">
+      <c r="E292" s="3">
         <v>95174</v>
       </c>
       <c r="F292">
@@ -13174,7 +13201,7 @@
       <c r="D293">
         <v>52</v>
       </c>
-      <c r="E293">
+      <c r="E293" s="3">
         <v>107753</v>
       </c>
       <c r="F293">
@@ -13212,7 +13239,7 @@
       <c r="D294">
         <v>52</v>
       </c>
-      <c r="E294">
+      <c r="E294" s="3">
         <v>99022</v>
       </c>
       <c r="F294">
@@ -13250,7 +13277,7 @@
       <c r="D295">
         <v>53</v>
       </c>
-      <c r="E295">
+      <c r="E295" s="3">
         <v>113631</v>
       </c>
       <c r="F295">
@@ -13288,7 +13315,7 @@
       <c r="D296">
         <v>53</v>
       </c>
-      <c r="E296">
+      <c r="E296" s="3">
         <v>100420</v>
       </c>
       <c r="F296">
@@ -13326,7 +13353,7 @@
       <c r="D297">
         <v>53</v>
       </c>
-      <c r="E297">
+      <c r="E297" s="3">
         <v>114386</v>
       </c>
       <c r="F297">
@@ -13364,7 +13391,7 @@
       <c r="D298">
         <v>53</v>
       </c>
-      <c r="E298">
+      <c r="E298" s="3">
         <v>99183</v>
       </c>
       <c r="F298">
@@ -13402,7 +13429,7 @@
       <c r="D299">
         <v>54</v>
       </c>
-      <c r="E299">
+      <c r="E299" s="3">
         <v>98362</v>
       </c>
       <c r="F299">
@@ -13440,7 +13467,7 @@
       <c r="D300">
         <v>53</v>
       </c>
-      <c r="E300">
+      <c r="E300" s="3">
         <v>106935</v>
       </c>
       <c r="F300">
@@ -13478,7 +13505,7 @@
       <c r="D301">
         <v>54</v>
       </c>
-      <c r="E301">
+      <c r="E301" s="3">
         <v>114396</v>
       </c>
       <c r="F301">
@@ -13516,7 +13543,7 @@
       <c r="D302">
         <v>54</v>
       </c>
-      <c r="E302">
+      <c r="E302" s="3">
         <v>91623</v>
       </c>
       <c r="F302">
@@ -13554,7 +13581,7 @@
       <c r="D303">
         <v>54</v>
       </c>
-      <c r="E303">
+      <c r="E303" s="3">
         <v>107208</v>
       </c>
       <c r="F303">
@@ -13592,7 +13619,7 @@
       <c r="D304">
         <v>54</v>
       </c>
-      <c r="E304">
+      <c r="E304" s="3">
         <v>101085</v>
       </c>
       <c r="F304">
@@ -13630,7 +13657,7 @@
       <c r="D305">
         <v>55</v>
       </c>
-      <c r="E305">
+      <c r="E305" s="3">
         <v>97700</v>
       </c>
       <c r="F305">
@@ -13668,7 +13695,7 @@
       <c r="D306">
         <v>55</v>
       </c>
-      <c r="E306">
+      <c r="E306" s="3">
         <v>95480</v>
       </c>
       <c r="F306">
@@ -13706,7 +13733,7 @@
       <c r="D307">
         <v>55</v>
       </c>
-      <c r="E307">
+      <c r="E307" s="3">
         <v>96684</v>
       </c>
       <c r="F307">
@@ -13744,7 +13771,7 @@
       <c r="D308">
         <v>55</v>
       </c>
-      <c r="E308">
+      <c r="E308" s="3">
         <v>111355</v>
       </c>
       <c r="F308">
@@ -13782,7 +13809,7 @@
       <c r="D309">
         <v>55</v>
       </c>
-      <c r="E309">
+      <c r="E309" s="3">
         <v>107869</v>
       </c>
       <c r="F309">
@@ -13820,7 +13847,7 @@
       <c r="D310">
         <v>56</v>
       </c>
-      <c r="E310">
+      <c r="E310" s="3">
         <v>89019</v>
       </c>
       <c r="F310">
@@ -13858,7 +13885,7 @@
       <c r="D311">
         <v>56</v>
       </c>
-      <c r="E311">
+      <c r="E311" s="3">
         <v>72558</v>
       </c>
       <c r="F311">
@@ -13896,7 +13923,7 @@
       <c r="D312">
         <v>56</v>
       </c>
-      <c r="E312">
+      <c r="E312" s="3">
         <v>100132</v>
       </c>
       <c r="F312">
@@ -13934,7 +13961,7 @@
       <c r="D313">
         <v>56</v>
       </c>
-      <c r="E313">
+      <c r="E313" s="3">
         <v>90737</v>
       </c>
       <c r="F313">
@@ -13972,7 +13999,7 @@
       <c r="D314">
         <v>57</v>
       </c>
-      <c r="E314">
+      <c r="E314" s="3">
         <v>84869</v>
       </c>
       <c r="F314">
@@ -14010,7 +14037,7 @@
       <c r="D315">
         <v>56</v>
       </c>
-      <c r="E315">
+      <c r="E315" s="3">
         <v>111407</v>
       </c>
       <c r="F315">
@@ -14048,7 +14075,7 @@
       <c r="D316">
         <v>57</v>
       </c>
-      <c r="E316">
+      <c r="E316" s="3">
         <v>83942</v>
       </c>
       <c r="F316">
@@ -14086,7 +14113,7 @@
       <c r="D317">
         <v>57</v>
       </c>
-      <c r="E317">
+      <c r="E317" s="3">
         <v>139960</v>
       </c>
       <c r="F317">
@@ -14124,7 +14151,7 @@
       <c r="D318">
         <v>57</v>
       </c>
-      <c r="E318">
+      <c r="E318" s="3">
         <v>106048</v>
       </c>
       <c r="F318">
@@ -14162,7 +14189,7 @@
       <c r="D319">
         <v>57</v>
       </c>
-      <c r="E319">
+      <c r="E319" s="3">
         <v>90294</v>
       </c>
       <c r="F319">
@@ -14200,7 +14227,7 @@
       <c r="D320">
         <v>58</v>
       </c>
-      <c r="E320">
+      <c r="E320" s="3">
         <v>122883</v>
       </c>
       <c r="F320">
@@ -14238,7 +14265,7 @@
       <c r="D321">
         <v>58</v>
       </c>
-      <c r="E321">
+      <c r="E321" s="3">
         <v>110063</v>
       </c>
       <c r="F321">
@@ -14276,7 +14303,7 @@
       <c r="D322">
         <v>58</v>
       </c>
-      <c r="E322">
+      <c r="E322" s="3">
         <v>126534</v>
       </c>
       <c r="F322">
@@ -14314,7 +14341,7 @@
       <c r="D323">
         <v>58</v>
       </c>
-      <c r="E323">
+      <c r="E323" s="3">
         <v>87331</v>
       </c>
       <c r="F323">
@@ -14352,7 +14379,7 @@
       <c r="D324">
         <v>58</v>
       </c>
-      <c r="E324">
+      <c r="E324" s="3">
         <v>88023</v>
       </c>
       <c r="F324">
@@ -14390,7 +14417,7 @@
       <c r="D325">
         <v>59</v>
       </c>
-      <c r="E325">
+      <c r="E325" s="3">
         <v>112943</v>
       </c>
       <c r="F325">
@@ -14428,7 +14455,7 @@
       <c r="D326">
         <v>59</v>
       </c>
-      <c r="E326">
+      <c r="E326" s="3">
         <v>90275</v>
       </c>
       <c r="F326">
@@ -14466,7 +14493,7 @@
       <c r="D327">
         <v>59</v>
       </c>
-      <c r="E327">
+      <c r="E327" s="3">
         <v>93243</v>
       </c>
       <c r="F327">
@@ -14504,7 +14531,7 @@
       <c r="D328">
         <v>59</v>
       </c>
-      <c r="E328">
+      <c r="E328" s="3">
         <v>110357</v>
       </c>
       <c r="F328">
@@ -14542,7 +14569,7 @@
       <c r="D329">
         <v>60</v>
       </c>
-      <c r="E329">
+      <c r="E329" s="3">
         <v>101689</v>
       </c>
       <c r="F329">
@@ -14580,7 +14607,7 @@
       <c r="D330">
         <v>60</v>
       </c>
-      <c r="E330">
+      <c r="E330" s="3">
         <v>105031</v>
       </c>
       <c r="F330">
@@ -14618,7 +14645,7 @@
       <c r="D331">
         <v>59</v>
       </c>
-      <c r="E331">
+      <c r="E331" s="3">
         <v>99514</v>
       </c>
       <c r="F331">
@@ -14656,7 +14683,7 @@
       <c r="D332">
         <v>60</v>
       </c>
-      <c r="E332">
+      <c r="E332" s="3">
         <v>105895</v>
       </c>
       <c r="F332">
@@ -14694,7 +14721,7 @@
       <c r="D333">
         <v>60</v>
       </c>
-      <c r="E333">
+      <c r="E333" s="3">
         <v>147103</v>
       </c>
       <c r="F333">
@@ -14732,7 +14759,7 @@
       <c r="D334">
         <v>60</v>
       </c>
-      <c r="E334">
+      <c r="E334" s="3">
         <v>83291</v>
       </c>
       <c r="F334">
@@ -14770,7 +14797,7 @@
       <c r="D335">
         <v>61</v>
       </c>
-      <c r="E335">
+      <c r="E335" s="3">
         <v>86250</v>
       </c>
       <c r="F335">
@@ -14808,7 +14835,7 @@
       <c r="D336">
         <v>61</v>
       </c>
-      <c r="E336">
+      <c r="E336" s="3">
         <v>100613</v>
       </c>
       <c r="F336">
@@ -14846,7 +14873,7 @@
       <c r="D337">
         <v>61</v>
       </c>
-      <c r="E337">
+      <c r="E337" s="3">
         <v>107557</v>
       </c>
       <c r="F337">
@@ -14884,7 +14911,7 @@
       <c r="D338">
         <v>62</v>
       </c>
-      <c r="E338">
+      <c r="E338" s="3">
         <v>104918</v>
       </c>
       <c r="F338">
@@ -14922,7 +14949,7 @@
       <c r="D339">
         <v>62</v>
       </c>
-      <c r="E339">
+      <c r="E339" s="3">
         <v>109360</v>
       </c>
       <c r="F339">
@@ -14960,7 +14987,7 @@
       <c r="D340">
         <v>61</v>
       </c>
-      <c r="E340">
+      <c r="E340" s="3">
         <v>100848</v>
       </c>
       <c r="F340">
@@ -14998,7 +15025,7 @@
       <c r="D341">
         <v>61</v>
       </c>
-      <c r="E341">
+      <c r="E341" s="3">
         <v>88173</v>
       </c>
       <c r="F341">
@@ -15036,7 +15063,7 @@
       <c r="D342">
         <v>62</v>
       </c>
-      <c r="E342">
+      <c r="E342" s="3">
         <v>102613</v>
       </c>
       <c r="F342">
@@ -15074,7 +15101,7 @@
       <c r="D343">
         <v>62</v>
       </c>
-      <c r="E343">
+      <c r="E343" s="3">
         <v>101374</v>
       </c>
       <c r="F343">
@@ -15112,7 +15139,7 @@
       <c r="D344">
         <v>65</v>
       </c>
-      <c r="E344">
+      <c r="E344" s="3">
         <v>98129</v>
       </c>
       <c r="F344">
@@ -15150,7 +15177,7 @@
       <c r="D345">
         <v>78</v>
       </c>
-      <c r="E345">
+      <c r="E345" s="3">
         <v>111718</v>
       </c>
       <c r="F345">
@@ -15188,7 +15215,7 @@
       <c r="D346">
         <v>64</v>
       </c>
-      <c r="E346">
+      <c r="E346" s="3">
         <v>110670</v>
       </c>
       <c r="F346">
@@ -15226,7 +15253,7 @@
       <c r="D347">
         <v>79</v>
       </c>
-      <c r="E347">
+      <c r="E347" s="3">
         <v>115802</v>
       </c>
       <c r="F347">
@@ -15264,7 +15291,7 @@
       <c r="D348">
         <v>100</v>
       </c>
-      <c r="E348">
+      <c r="E348" s="3">
         <v>101215</v>
       </c>
       <c r="F348">
@@ -15302,7 +15329,7 @@
       <c r="D349">
         <v>81</v>
       </c>
-      <c r="E349">
+      <c r="E349" s="3">
         <v>90466</v>
       </c>
       <c r="F349">
@@ -15340,7 +15367,7 @@
       <c r="D350">
         <v>94</v>
       </c>
-      <c r="E350">
+      <c r="E350" s="3">
         <v>121411</v>
       </c>
       <c r="F350">
@@ -15378,7 +15405,7 @@
       <c r="D351">
         <v>98</v>
       </c>
-      <c r="E351">
+      <c r="E351" s="3">
         <v>117773</v>
       </c>
       <c r="F351">
@@ -15416,7 +15443,7 @@
       <c r="D352">
         <v>68</v>
       </c>
-      <c r="E352">
+      <c r="E352" s="3">
         <v>92777</v>
       </c>
       <c r="F352">
@@ -15454,7 +15481,7 @@
       <c r="D353">
         <v>65</v>
       </c>
-      <c r="E353">
+      <c r="E353" s="3">
         <v>103826</v>
       </c>
       <c r="F353">
@@ -15492,7 +15519,7 @@
       <c r="D354">
         <v>62</v>
       </c>
-      <c r="E354">
+      <c r="E354" s="3">
         <v>108605</v>
       </c>
       <c r="F354">
@@ -15530,7 +15557,7 @@
       <c r="D355">
         <v>63</v>
       </c>
-      <c r="E355">
+      <c r="E355" s="3">
         <v>112193</v>
       </c>
       <c r="F355">
@@ -15568,7 +15595,7 @@
       <c r="D356">
         <v>95</v>
       </c>
-      <c r="E356">
+      <c r="E356" s="3">
         <v>100303</v>
       </c>
       <c r="F356">
@@ -15606,7 +15633,7 @@
       <c r="D357">
         <v>97</v>
       </c>
-      <c r="E357">
+      <c r="E357" s="3">
         <v>104955</v>
       </c>
       <c r="F357">
@@ -15644,7 +15671,7 @@
       <c r="D358">
         <v>82</v>
       </c>
-      <c r="E358">
+      <c r="E358" s="3">
         <v>109411</v>
       </c>
       <c r="F358">
@@ -15682,7 +15709,7 @@
       <c r="D359">
         <v>63</v>
       </c>
-      <c r="E359">
+      <c r="E359" s="3">
         <v>104647</v>
       </c>
       <c r="F359">
@@ -15720,7 +15747,7 @@
       <c r="D360">
         <v>65</v>
       </c>
-      <c r="E360">
+      <c r="E360" s="3">
         <v>111029</v>
       </c>
       <c r="F360">
@@ -15758,7 +15785,7 @@
       <c r="D361">
         <v>79</v>
       </c>
-      <c r="E361">
+      <c r="E361" s="3">
         <v>106211</v>
       </c>
       <c r="F361">
@@ -15796,7 +15823,7 @@
       <c r="D362">
         <v>66</v>
       </c>
-      <c r="E362">
+      <c r="E362" s="3">
         <v>107469</v>
       </c>
       <c r="F362">
@@ -15834,7 +15861,7 @@
       <c r="D363">
         <v>93</v>
       </c>
-      <c r="E363">
+      <c r="E363" s="3">
         <v>89684</v>
       </c>
       <c r="F363">
@@ -15872,7 +15899,7 @@
       <c r="D364">
         <v>93</v>
       </c>
-      <c r="E364">
+      <c r="E364" s="3">
         <v>92824</v>
       </c>
       <c r="F364">
@@ -15910,7 +15937,7 @@
       <c r="D365">
         <v>63</v>
       </c>
-      <c r="E365">
+      <c r="E365" s="3">
         <v>94681</v>
       </c>
       <c r="F365">
@@ -15948,7 +15975,7 @@
       <c r="D366">
         <v>96</v>
       </c>
-      <c r="E366">
+      <c r="E366" s="3">
         <v>101638</v>
       </c>
       <c r="F366">
@@ -15986,7 +16013,7 @@
       <c r="D367">
         <v>85</v>
       </c>
-      <c r="E367">
+      <c r="E367" s="3">
         <v>124162</v>
       </c>
       <c r="F367">
@@ -16024,7 +16051,7 @@
       <c r="D368">
         <v>73</v>
       </c>
-      <c r="E368">
+      <c r="E368" s="3">
         <v>96313</v>
       </c>
       <c r="F368">
@@ -16062,7 +16089,7 @@
       <c r="D369">
         <v>64</v>
       </c>
-      <c r="E369">
+      <c r="E369" s="3">
         <v>120558</v>
       </c>
       <c r="F369">
@@ -16100,7 +16127,7 @@
       <c r="D370">
         <v>74</v>
       </c>
-      <c r="E370">
+      <c r="E370" s="3">
         <v>117514</v>
       </c>
       <c r="F370">
@@ -16138,7 +16165,7 @@
       <c r="D371">
         <v>75</v>
       </c>
-      <c r="E371">
+      <c r="E371" s="3">
         <v>119186</v>
       </c>
       <c r="F371">
@@ -16176,7 +16203,7 @@
       <c r="D372">
         <v>83</v>
       </c>
-      <c r="E372">
+      <c r="E372" s="3">
         <v>107822</v>
       </c>
       <c r="F372">
@@ -16214,7 +16241,7 @@
       <c r="D373">
         <v>99</v>
       </c>
-      <c r="E373">
+      <c r="E373" s="3">
         <v>128552</v>
       </c>
       <c r="F373">
@@ -16252,7 +16279,7 @@
       <c r="D374">
         <v>83</v>
       </c>
-      <c r="E374">
+      <c r="E374" s="3">
         <v>112633</v>
       </c>
       <c r="F374">
@@ -16290,7 +16317,7 @@
       <c r="D375">
         <v>79</v>
       </c>
-      <c r="E375">
+      <c r="E375" s="3">
         <v>126044</v>
       </c>
       <c r="F375">
@@ -16328,7 +16355,7 @@
       <c r="D376">
         <v>96</v>
       </c>
-      <c r="E376">
+      <c r="E376" s="3">
         <v>102958</v>
       </c>
       <c r="F376">
@@ -16366,7 +16393,7 @@
       <c r="D377">
         <v>86</v>
       </c>
-      <c r="E377">
+      <c r="E377" s="3">
         <v>87347</v>
       </c>
       <c r="F377">
@@ -16404,7 +16431,7 @@
       <c r="D378">
         <v>93</v>
       </c>
-      <c r="E378">
+      <c r="E378" s="3">
         <v>97860</v>
       </c>
       <c r="F378">
@@ -16442,7 +16469,7 @@
       <c r="D379">
         <v>98</v>
       </c>
-      <c r="E379">
+      <c r="E379" s="3">
         <v>112279</v>
       </c>
       <c r="F379">
@@ -16480,7 +16507,7 @@
       <c r="D380">
         <v>94</v>
       </c>
-      <c r="E380">
+      <c r="E380" s="3">
         <v>100789</v>
       </c>
       <c r="F380">
@@ -16518,7 +16545,7 @@
       <c r="D381">
         <v>100</v>
       </c>
-      <c r="E381">
+      <c r="E381" s="3">
         <v>104686</v>
       </c>
       <c r="F381">
@@ -16556,7 +16583,7 @@
       <c r="D382">
         <v>82</v>
       </c>
-      <c r="E382">
+      <c r="E382" s="3">
         <v>116945</v>
       </c>
       <c r="F382">
@@ -16594,7 +16621,7 @@
       <c r="D383">
         <v>73</v>
       </c>
-      <c r="E383">
+      <c r="E383" s="3">
         <v>96092</v>
       </c>
       <c r="F383">
@@ -16632,7 +16659,7 @@
       <c r="D384">
         <v>94</v>
       </c>
-      <c r="E384">
+      <c r="E384" s="3">
         <v>106612</v>
       </c>
       <c r="F384">
@@ -16670,7 +16697,7 @@
       <c r="D385">
         <v>66</v>
       </c>
-      <c r="E385">
+      <c r="E385" s="3">
         <v>103558</v>
       </c>
       <c r="F385">
@@ -16708,7 +16735,7 @@
       <c r="D386">
         <v>68</v>
       </c>
-      <c r="E386">
+      <c r="E386" s="3">
         <v>119428</v>
       </c>
       <c r="F386">
@@ -16746,7 +16773,7 @@
       <c r="D387">
         <v>68</v>
       </c>
-      <c r="E387">
+      <c r="E387" s="3">
         <v>94615</v>
       </c>
       <c r="F387">
@@ -16784,7 +16811,7 @@
       <c r="D388">
         <v>73</v>
       </c>
-      <c r="E388">
+      <c r="E388" s="3">
         <v>104688</v>
       </c>
       <c r="F388">
@@ -16822,7 +16849,7 @@
       <c r="D389">
         <v>82</v>
       </c>
-      <c r="E389">
+      <c r="E389" s="3">
         <v>111186</v>
       </c>
       <c r="F389">
@@ -16860,7 +16887,7 @@
       <c r="D390">
         <v>78</v>
       </c>
-      <c r="E390">
+      <c r="E390" s="3">
         <v>102962</v>
       </c>
       <c r="F390">
@@ -16898,7 +16925,7 @@
       <c r="D391">
         <v>84</v>
       </c>
-      <c r="E391">
+      <c r="E391" s="3">
         <v>115265</v>
       </c>
       <c r="F391">
@@ -16936,7 +16963,7 @@
       <c r="D392">
         <v>81</v>
       </c>
-      <c r="E392">
+      <c r="E392" s="3">
         <v>128685</v>
       </c>
       <c r="F392">
@@ -16974,7 +17001,7 @@
       <c r="D393">
         <v>65</v>
       </c>
-      <c r="E393">
+      <c r="E393" s="3">
         <v>97425</v>
       </c>
       <c r="F393">
@@ -17012,7 +17039,7 @@
       <c r="D394">
         <v>98</v>
       </c>
-      <c r="E394">
+      <c r="E394" s="3">
         <v>101325</v>
       </c>
       <c r="F394">
@@ -17050,7 +17077,7 @@
       <c r="D395">
         <v>86</v>
       </c>
-      <c r="E395">
+      <c r="E395" s="3">
         <v>96183</v>
       </c>
       <c r="F395">
@@ -17088,7 +17115,7 @@
       <c r="D396">
         <v>74</v>
       </c>
-      <c r="E396">
+      <c r="E396" s="3">
         <v>101040</v>
       </c>
       <c r="F396">
@@ -17126,7 +17153,7 @@
       <c r="D397">
         <v>90</v>
       </c>
-      <c r="E397">
+      <c r="E397" s="3">
         <v>114598</v>
       </c>
       <c r="F397">
@@ -17164,7 +17191,7 @@
       <c r="D398">
         <v>74</v>
       </c>
-      <c r="E398">
+      <c r="E398" s="3">
         <v>101756</v>
       </c>
       <c r="F398">
@@ -17202,7 +17229,7 @@
       <c r="D399">
         <v>97</v>
       </c>
-      <c r="E399">
+      <c r="E399" s="3">
         <v>107288</v>
       </c>
       <c r="F399">
@@ -17240,7 +17267,7 @@
       <c r="D400">
         <v>76</v>
       </c>
-      <c r="E400">
+      <c r="E400" s="3">
         <v>122686</v>
       </c>
       <c r="F400">
@@ -17278,7 +17305,7 @@
       <c r="D401">
         <v>91</v>
       </c>
-      <c r="E401">
+      <c r="E401" s="3">
         <v>104619</v>
       </c>
       <c r="F401">
@@ -17316,7 +17343,7 @@
       <c r="D402">
         <v>64</v>
       </c>
-      <c r="E402">
+      <c r="E402" s="3">
         <v>112398</v>
       </c>
       <c r="F402">
@@ -17354,7 +17381,7 @@
       <c r="D403">
         <v>83</v>
       </c>
-      <c r="E403">
+      <c r="E403" s="3">
         <v>101536</v>
       </c>
       <c r="F403">
@@ -17392,7 +17419,7 @@
       <c r="D404">
         <v>93</v>
       </c>
-      <c r="E404">
+      <c r="E404" s="3">
         <v>131457</v>
       </c>
       <c r="F404">
@@ -17430,7 +17457,7 @@
       <c r="D405">
         <v>74</v>
       </c>
-      <c r="E405">
+      <c r="E405" s="3">
         <v>95975</v>
       </c>
       <c r="F405">
@@ -17468,7 +17495,7 @@
       <c r="D406">
         <v>82</v>
       </c>
-      <c r="E406">
+      <c r="E406" s="3">
         <v>145788</v>
       </c>
       <c r="F406">
@@ -17506,7 +17533,7 @@
       <c r="D407">
         <v>72</v>
       </c>
-      <c r="E407">
+      <c r="E407" s="3">
         <v>139964</v>
       </c>
       <c r="F407">
@@ -17544,7 +17571,7 @@
       <c r="D408">
         <v>72</v>
       </c>
-      <c r="E408">
+      <c r="E408" s="3">
         <v>143871</v>
       </c>
       <c r="F408">
@@ -17582,7 +17609,7 @@
       <c r="D409">
         <v>75</v>
       </c>
-      <c r="E409">
+      <c r="E409" s="3">
         <v>113626</v>
       </c>
       <c r="F409">
@@ -17620,7 +17647,7 @@
       <c r="D410">
         <v>77</v>
       </c>
-      <c r="E410">
+      <c r="E410" s="3">
         <v>129220</v>
       </c>
       <c r="F410">
@@ -17658,7 +17685,7 @@
       <c r="D411">
         <v>80</v>
       </c>
-      <c r="E411">
+      <c r="E411" s="3">
         <v>106902</v>
       </c>
       <c r="F411">
@@ -17696,7 +17723,7 @@
       <c r="D412">
         <v>83</v>
       </c>
-      <c r="E412">
+      <c r="E412" s="3">
         <v>124602</v>
       </c>
       <c r="F412">
@@ -17734,7 +17761,7 @@
       <c r="D413">
         <v>75</v>
       </c>
-      <c r="E413">
+      <c r="E413" s="3">
         <v>107287</v>
       </c>
       <c r="F413">
@@ -17772,7 +17799,7 @@
       <c r="D414">
         <v>90</v>
       </c>
-      <c r="E414">
+      <c r="E414" s="3">
         <v>113973</v>
       </c>
       <c r="F414">
@@ -17810,7 +17837,7 @@
       <c r="D415">
         <v>72</v>
       </c>
-      <c r="E415">
+      <c r="E415" s="3">
         <v>110051</v>
       </c>
       <c r="F415">
@@ -17848,7 +17875,7 @@
       <c r="D416">
         <v>91</v>
       </c>
-      <c r="E416">
+      <c r="E416" s="3">
         <v>97582</v>
       </c>
       <c r="F416">
@@ -17886,7 +17913,7 @@
       <c r="D417">
         <v>71</v>
       </c>
-      <c r="E417">
+      <c r="E417" s="3">
         <v>144921</v>
       </c>
       <c r="F417">
@@ -17924,7 +17951,7 @@
       <c r="D418">
         <v>76</v>
       </c>
-      <c r="E418">
+      <c r="E418" s="3">
         <v>103234</v>
       </c>
       <c r="F418">
@@ -17962,7 +17989,7 @@
       <c r="D419">
         <v>84</v>
       </c>
-      <c r="E419">
+      <c r="E419" s="3">
         <v>147347</v>
       </c>
       <c r="F419">
@@ -18000,7 +18027,7 @@
       <c r="D420">
         <v>97</v>
       </c>
-      <c r="E420">
+      <c r="E420" s="3">
         <v>101763</v>
       </c>
       <c r="F420">
@@ -18038,7 +18065,7 @@
       <c r="D421">
         <v>100</v>
       </c>
-      <c r="E421">
+      <c r="E421" s="3">
         <v>111783</v>
       </c>
       <c r="F421">
@@ -18076,7 +18103,7 @@
       <c r="D422">
         <v>85</v>
       </c>
-      <c r="E422">
+      <c r="E422" s="3">
         <v>106946</v>
       </c>
       <c r="F422">
@@ -18114,7 +18141,7 @@
       <c r="D423">
         <v>73</v>
       </c>
-      <c r="E423">
+      <c r="E423" s="3">
         <v>101994</v>
       </c>
       <c r="F423">
@@ -18152,7 +18179,7 @@
       <c r="D424">
         <v>63</v>
       </c>
-      <c r="E424">
+      <c r="E424" s="3">
         <v>112655</v>
       </c>
       <c r="F424">
@@ -18179,40 +18206,40 @@
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="B425" t="s">
         <v>44</v>
       </c>
       <c r="C425">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D425">
-        <v>78</v>
-      </c>
-      <c r="E425">
-        <v>97148</v>
+        <v>63</v>
+      </c>
+      <c r="E425" s="3">
+        <v>111577</v>
       </c>
       <c r="F425">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G425">
         <v>0</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I425">
-        <v>100</v>
+        <v>99.99</v>
       </c>
       <c r="J425">
         <v>0</v>
       </c>
       <c r="K425">
-        <v>24.95</v>
+        <v>77.819999999999993</v>
       </c>
       <c r="L425">
-        <v>75.05</v>
+        <v>22.18</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
@@ -18228,7 +18255,7 @@
       <c r="D426">
         <v>64</v>
       </c>
-      <c r="E426">
+      <c r="E426" s="3">
         <v>107624</v>
       </c>
       <c r="F426">
@@ -18255,22 +18282,22 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="B427" t="s">
         <v>44</v>
       </c>
       <c r="C427">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D427">
-        <v>91</v>
-      </c>
-      <c r="E427">
-        <v>98778</v>
+        <v>64</v>
+      </c>
+      <c r="E427" s="3">
+        <v>112024</v>
       </c>
       <c r="F427">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G427">
         <v>0</v>
@@ -18285,27 +18312,27 @@
         <v>0</v>
       </c>
       <c r="K427">
-        <v>52.05</v>
+        <v>76.81</v>
       </c>
       <c r="L427">
-        <v>47.95</v>
+        <v>23.19</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="B428" t="s">
         <v>44</v>
       </c>
       <c r="C428">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D428">
-        <v>88</v>
-      </c>
-      <c r="E428">
-        <v>107677</v>
+        <v>65</v>
+      </c>
+      <c r="E428" s="3">
+        <v>83844</v>
       </c>
       <c r="F428">
         <v>2</v>
@@ -18320,30 +18347,30 @@
         <v>100</v>
       </c>
       <c r="J428">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="K428">
-        <v>12.37</v>
+        <v>74.69</v>
       </c>
       <c r="L428">
-        <v>87.63</v>
+        <v>25.05</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="B429" t="s">
         <v>44</v>
       </c>
       <c r="C429">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D429">
-        <v>97</v>
-      </c>
-      <c r="E429">
-        <v>131435</v>
+        <v>66</v>
+      </c>
+      <c r="E429" s="3">
+        <v>93036</v>
       </c>
       <c r="F429">
         <v>2</v>
@@ -18352,36 +18379,36 @@
         <v>0</v>
       </c>
       <c r="H429">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="I429">
-        <v>99.94</v>
+        <v>99.99</v>
       </c>
       <c r="J429">
         <v>0</v>
       </c>
       <c r="K429">
-        <v>50.61</v>
+        <v>74.819999999999993</v>
       </c>
       <c r="L429">
-        <v>49.39</v>
+        <v>25.18</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="B430" t="s">
         <v>44</v>
       </c>
       <c r="C430">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D430">
-        <v>95</v>
-      </c>
-      <c r="E430">
-        <v>117818</v>
+        <v>66</v>
+      </c>
+      <c r="E430" s="3">
+        <v>87414</v>
       </c>
       <c r="F430">
         <v>2</v>
@@ -18390,36 +18417,36 @@
         <v>0</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="I430">
-        <v>100</v>
+        <v>99.83</v>
       </c>
       <c r="J430">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="K430">
-        <v>40.479999999999997</v>
+        <v>71.73</v>
       </c>
       <c r="L430">
-        <v>59.52</v>
+        <v>25.43</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="B431" t="s">
         <v>44</v>
       </c>
       <c r="C431">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D431">
-        <v>67</v>
-      </c>
-      <c r="E431">
-        <v>87559</v>
+        <v>66</v>
+      </c>
+      <c r="E431" s="3">
+        <v>110532</v>
       </c>
       <c r="F431">
         <v>2</v>
@@ -18428,24 +18455,24 @@
         <v>0</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I431">
-        <v>100</v>
+        <v>99.98</v>
       </c>
       <c r="J431">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="K431">
-        <v>72.84</v>
+        <v>74.02</v>
       </c>
       <c r="L431">
-        <v>26.78</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B432" t="s">
         <v>44</v>
@@ -18454,10 +18481,10 @@
         <v>80</v>
       </c>
       <c r="D432">
-        <v>89</v>
-      </c>
-      <c r="E432">
-        <v>108751</v>
+        <v>67</v>
+      </c>
+      <c r="E432" s="3">
+        <v>87559</v>
       </c>
       <c r="F432">
         <v>2</v>
@@ -18472,30 +18499,30 @@
         <v>100</v>
       </c>
       <c r="J432">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="K432">
-        <v>48.74</v>
+        <v>72.84</v>
       </c>
       <c r="L432">
-        <v>51.26</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="B433" t="s">
         <v>44</v>
       </c>
       <c r="C433">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D433">
-        <v>75</v>
-      </c>
-      <c r="E433">
-        <v>124878</v>
+        <v>67</v>
+      </c>
+      <c r="E433" s="3">
+        <v>97414</v>
       </c>
       <c r="F433">
         <v>2</v>
@@ -18510,71 +18537,71 @@
         <v>99.94</v>
       </c>
       <c r="J433">
-        <v>0</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="K433">
-        <v>25.86</v>
+        <v>68.25</v>
       </c>
       <c r="L433">
-        <v>74.14</v>
+        <v>27.52</v>
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>447</v>
+        <v>509</v>
       </c>
       <c r="B434" t="s">
         <v>44</v>
       </c>
       <c r="C434">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D434">
-        <v>92</v>
-      </c>
-      <c r="E434">
-        <v>93196</v>
+        <v>67</v>
+      </c>
+      <c r="E434" s="3">
+        <v>95976</v>
       </c>
       <c r="F434">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G434">
         <v>0</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="I434">
-        <v>100</v>
+        <v>99.91</v>
       </c>
       <c r="J434">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="K434">
-        <v>53.39</v>
+        <v>68.23</v>
       </c>
       <c r="L434">
-        <v>46.5</v>
+        <v>31.62</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>448</v>
+        <v>518</v>
       </c>
       <c r="B435" t="s">
         <v>44</v>
       </c>
       <c r="C435">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D435">
-        <v>77</v>
-      </c>
-      <c r="E435">
-        <v>129903</v>
+        <v>67</v>
+      </c>
+      <c r="E435" s="3">
+        <v>96424</v>
       </c>
       <c r="F435">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G435">
         <v>0</v>
@@ -18589,30 +18616,30 @@
         <v>0</v>
       </c>
       <c r="K435">
-        <v>13.64</v>
+        <v>73.06</v>
       </c>
       <c r="L435">
-        <v>86.36</v>
+        <v>26.94</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>449</v>
+        <v>530</v>
       </c>
       <c r="B436" t="s">
         <v>44</v>
       </c>
       <c r="C436">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D436">
-        <v>96</v>
-      </c>
-      <c r="E436">
-        <v>152083</v>
+        <v>67</v>
+      </c>
+      <c r="E436" s="3">
+        <v>145889</v>
       </c>
       <c r="F436">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G436">
         <v>0</v>
@@ -18627,27 +18654,27 @@
         <v>0</v>
       </c>
       <c r="K436">
-        <v>47.55</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="L436">
-        <v>52.45</v>
+        <v>80.08</v>
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="B437" t="s">
         <v>44</v>
       </c>
       <c r="C437">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D437">
-        <v>94</v>
-      </c>
-      <c r="E437">
-        <v>105870</v>
+        <v>68</v>
+      </c>
+      <c r="E437" s="3">
+        <v>142763</v>
       </c>
       <c r="F437">
         <v>2</v>
@@ -18656,39 +18683,39 @@
         <v>0</v>
       </c>
       <c r="H437">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="I437">
-        <v>99.56</v>
+        <v>100</v>
       </c>
       <c r="J437">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="K437">
-        <v>64.64</v>
+        <v>12.85</v>
       </c>
       <c r="L437">
-        <v>34.880000000000003</v>
+        <v>87.15</v>
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
       <c r="B438" t="s">
         <v>44</v>
       </c>
       <c r="C438">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D438">
-        <v>97</v>
-      </c>
-      <c r="E438">
-        <v>118510</v>
+        <v>68</v>
+      </c>
+      <c r="E438" s="3">
+        <v>143024</v>
       </c>
       <c r="F438">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G438">
         <v>0</v>
@@ -18703,30 +18730,30 @@
         <v>0</v>
       </c>
       <c r="K438">
-        <v>24.96</v>
+        <v>11.77</v>
       </c>
       <c r="L438">
-        <v>75.040000000000006</v>
+        <v>88.23</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>452</v>
+        <v>497</v>
       </c>
       <c r="B439" t="s">
         <v>44</v>
       </c>
       <c r="C439">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D439">
-        <v>88</v>
-      </c>
-      <c r="E439">
-        <v>111827</v>
+        <v>69</v>
+      </c>
+      <c r="E439" s="3">
+        <v>100127</v>
       </c>
       <c r="F439">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G439">
         <v>0</v>
@@ -18741,30 +18768,30 @@
         <v>0</v>
       </c>
       <c r="K439">
-        <v>12.67</v>
+        <v>47.86</v>
       </c>
       <c r="L439">
-        <v>87.33</v>
+        <v>52.14</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>453</v>
+        <v>526</v>
       </c>
       <c r="B440" t="s">
         <v>44</v>
       </c>
       <c r="C440">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D440">
-        <v>91</v>
-      </c>
-      <c r="E440">
-        <v>107639</v>
+        <v>69</v>
+      </c>
+      <c r="E440" s="3">
+        <v>121913</v>
       </c>
       <c r="F440">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G440">
         <v>0</v>
@@ -18776,33 +18803,33 @@
         <v>100</v>
       </c>
       <c r="J440">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K440">
-        <v>53.5</v>
+        <v>50.99</v>
       </c>
       <c r="L440">
-        <v>46.48</v>
+        <v>49.01</v>
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>454</v>
+        <v>543</v>
       </c>
       <c r="B441" t="s">
         <v>44</v>
       </c>
       <c r="C441">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D441">
-        <v>83</v>
-      </c>
-      <c r="E441">
-        <v>126628</v>
+        <v>69</v>
+      </c>
+      <c r="E441" s="3">
+        <v>144061</v>
       </c>
       <c r="F441">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G441">
         <v>0</v>
@@ -18817,30 +18844,30 @@
         <v>0</v>
       </c>
       <c r="K441">
-        <v>7.83</v>
+        <v>58.29</v>
       </c>
       <c r="L441">
-        <v>92.17</v>
+        <v>41.71</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>455</v>
+        <v>544</v>
       </c>
       <c r="B442" t="s">
         <v>44</v>
       </c>
       <c r="C442">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D442">
-        <v>77</v>
-      </c>
-      <c r="E442">
-        <v>113878</v>
+        <v>69</v>
+      </c>
+      <c r="E442" s="3">
+        <v>104854</v>
       </c>
       <c r="F442">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G442">
         <v>0</v>
@@ -18855,30 +18882,30 @@
         <v>0</v>
       </c>
       <c r="K442">
-        <v>4.07</v>
+        <v>47.91</v>
       </c>
       <c r="L442">
-        <v>95.93</v>
+        <v>52.09</v>
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>456</v>
+        <v>546</v>
       </c>
       <c r="B443" t="s">
         <v>44</v>
       </c>
       <c r="C443">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D443">
-        <v>92</v>
-      </c>
-      <c r="E443">
-        <v>106827</v>
+        <v>69</v>
+      </c>
+      <c r="E443" s="3">
+        <v>132373</v>
       </c>
       <c r="F443">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G443">
         <v>0</v>
@@ -18893,68 +18920,68 @@
         <v>0</v>
       </c>
       <c r="K443">
-        <v>29.27</v>
+        <v>35.08</v>
       </c>
       <c r="L443">
-        <v>70.73</v>
+        <v>64.92</v>
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="B444" t="s">
         <v>44</v>
       </c>
       <c r="C444">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D444">
-        <v>79</v>
-      </c>
-      <c r="E444">
-        <v>118300</v>
+        <v>70</v>
+      </c>
+      <c r="E444" s="3">
+        <v>109606</v>
       </c>
       <c r="F444">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G444">
         <v>0</v>
       </c>
       <c r="H444">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="I444">
-        <v>99.93</v>
+        <v>100</v>
       </c>
       <c r="J444">
         <v>0</v>
       </c>
       <c r="K444">
-        <v>33.72</v>
+        <v>62.24</v>
       </c>
       <c r="L444">
-        <v>66.28</v>
+        <v>37.76</v>
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>458</v>
+        <v>529</v>
       </c>
       <c r="B445" t="s">
         <v>44</v>
       </c>
       <c r="C445">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D445">
-        <v>90</v>
-      </c>
-      <c r="E445">
-        <v>100271</v>
+        <v>70</v>
+      </c>
+      <c r="E445" s="3">
+        <v>101381</v>
       </c>
       <c r="F445">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G445">
         <v>0</v>
@@ -18969,27 +18996,27 @@
         <v>0</v>
       </c>
       <c r="K445">
-        <v>34.26</v>
+        <v>60.79</v>
       </c>
       <c r="L445">
-        <v>65.739999999999995</v>
+        <v>39.21</v>
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>459</v>
+        <v>531</v>
       </c>
       <c r="B446" t="s">
         <v>44</v>
       </c>
       <c r="C446">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D446">
-        <v>63</v>
-      </c>
-      <c r="E446">
-        <v>111577</v>
+        <v>70</v>
+      </c>
+      <c r="E446" s="3">
+        <v>112441</v>
       </c>
       <c r="F446">
         <v>1</v>
@@ -18998,77 +19025,77 @@
         <v>0</v>
       </c>
       <c r="H446">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I446">
-        <v>99.99</v>
+        <v>100</v>
       </c>
       <c r="J446">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="K446">
-        <v>77.819999999999993</v>
+        <v>53.51</v>
       </c>
       <c r="L446">
-        <v>22.18</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>460</v>
+        <v>538</v>
       </c>
       <c r="B447" t="s">
         <v>44</v>
       </c>
       <c r="C447">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D447">
-        <v>95</v>
-      </c>
-      <c r="E447">
-        <v>94026</v>
+        <v>70</v>
+      </c>
+      <c r="E447" s="3">
+        <v>116961</v>
       </c>
       <c r="F447">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G447">
         <v>0</v>
       </c>
       <c r="H447">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I447">
-        <v>99.86</v>
+        <v>100</v>
       </c>
       <c r="J447">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="K447">
-        <v>57.39</v>
+        <v>48.75</v>
       </c>
       <c r="L447">
-        <v>42.54</v>
+        <v>51.25</v>
       </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>461</v>
+        <v>545</v>
       </c>
       <c r="B448" t="s">
         <v>44</v>
       </c>
       <c r="C448">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D448">
-        <v>92</v>
-      </c>
-      <c r="E448">
-        <v>116704</v>
+        <v>70</v>
+      </c>
+      <c r="E448" s="3">
+        <v>128912</v>
       </c>
       <c r="F448">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G448">
         <v>0</v>
@@ -19083,30 +19110,30 @@
         <v>0</v>
       </c>
       <c r="K448">
-        <v>50.93</v>
+        <v>32.1</v>
       </c>
       <c r="L448">
-        <v>49.07</v>
+        <v>67.900000000000006</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="B449" t="s">
         <v>44</v>
       </c>
       <c r="C449">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D449">
-        <v>77</v>
-      </c>
-      <c r="E449">
-        <v>107997</v>
+        <v>71</v>
+      </c>
+      <c r="E449" s="3">
+        <v>149717</v>
       </c>
       <c r="F449">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G449">
         <v>0</v>
@@ -19121,30 +19148,30 @@
         <v>0</v>
       </c>
       <c r="K449">
-        <v>8.3800000000000008</v>
+        <v>1.85</v>
       </c>
       <c r="L449">
-        <v>91.62</v>
+        <v>98.15</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="B450" t="s">
         <v>44</v>
       </c>
       <c r="C450">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D450">
-        <v>79</v>
-      </c>
-      <c r="E450">
-        <v>144308</v>
+        <v>71</v>
+      </c>
+      <c r="E450" s="3">
+        <v>106440</v>
       </c>
       <c r="F450">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G450">
         <v>0</v>
@@ -19156,33 +19183,33 @@
         <v>100</v>
       </c>
       <c r="J450">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="K450">
-        <v>13.95</v>
+        <v>42.87</v>
       </c>
       <c r="L450">
-        <v>86.05</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>464</v>
+        <v>536</v>
       </c>
       <c r="B451" t="s">
         <v>44</v>
       </c>
       <c r="C451">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D451">
-        <v>93</v>
-      </c>
-      <c r="E451">
-        <v>167285</v>
+        <v>71</v>
+      </c>
+      <c r="E451" s="3">
+        <v>121816</v>
       </c>
       <c r="F451">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G451">
         <v>0</v>
@@ -19197,30 +19224,30 @@
         <v>0</v>
       </c>
       <c r="K451">
-        <v>9.41</v>
+        <v>24.82</v>
       </c>
       <c r="L451">
-        <v>90.59</v>
+        <v>75.180000000000007</v>
       </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>465</v>
+        <v>539</v>
       </c>
       <c r="B452" t="s">
         <v>44</v>
       </c>
       <c r="C452">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D452">
-        <v>80</v>
-      </c>
-      <c r="E452">
-        <v>135800</v>
+        <v>71</v>
+      </c>
+      <c r="E452" s="3">
+        <v>121356</v>
       </c>
       <c r="F452">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G452">
         <v>0</v>
@@ -19232,30 +19259,30 @@
         <v>100</v>
       </c>
       <c r="J452">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="K452">
-        <v>23.58</v>
+        <v>23.91</v>
       </c>
       <c r="L452">
-        <v>76.42</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B453" t="s">
         <v>44</v>
       </c>
       <c r="C453">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D453">
-        <v>81</v>
-      </c>
-      <c r="E453">
-        <v>117829</v>
+        <v>72</v>
+      </c>
+      <c r="E453" s="3">
+        <v>104315</v>
       </c>
       <c r="F453">
         <v>2</v>
@@ -19273,68 +19300,68 @@
         <v>0</v>
       </c>
       <c r="K453">
-        <v>5.33</v>
+        <v>68.89</v>
       </c>
       <c r="L453">
-        <v>94.67</v>
+        <v>31.11</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="B454" t="s">
         <v>44</v>
       </c>
       <c r="C454">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D454">
-        <v>89</v>
-      </c>
-      <c r="E454">
-        <v>123502</v>
+        <v>72</v>
+      </c>
+      <c r="E454" s="3">
+        <v>118142</v>
       </c>
       <c r="F454">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G454">
         <v>0</v>
       </c>
       <c r="H454">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I454">
-        <v>99.98</v>
+        <v>100</v>
       </c>
       <c r="J454">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="K454">
-        <v>46.94</v>
+        <v>52.59</v>
       </c>
       <c r="L454">
-        <v>51.63</v>
+        <v>47.41</v>
       </c>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="B455" t="s">
         <v>44</v>
       </c>
       <c r="C455">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D455">
-        <v>82</v>
-      </c>
-      <c r="E455">
-        <v>126400</v>
+        <v>73</v>
+      </c>
+      <c r="E455" s="3">
+        <v>128032</v>
       </c>
       <c r="F455">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G455">
         <v>0</v>
@@ -19349,30 +19376,30 @@
         <v>0</v>
       </c>
       <c r="K455">
-        <v>11.99</v>
+        <v>9.69</v>
       </c>
       <c r="L455">
-        <v>88.01</v>
+        <v>90.31</v>
       </c>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="B456" t="s">
         <v>44</v>
       </c>
       <c r="C456">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D456">
-        <v>78</v>
-      </c>
-      <c r="E456">
-        <v>108992</v>
+        <v>74</v>
+      </c>
+      <c r="E456" s="3">
+        <v>124410</v>
       </c>
       <c r="F456">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G456">
         <v>0</v>
@@ -19387,27 +19414,27 @@
         <v>0</v>
       </c>
       <c r="K456">
-        <v>39.03</v>
+        <v>48.59</v>
       </c>
       <c r="L456">
-        <v>60.97</v>
+        <v>51.41</v>
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="B457" t="s">
         <v>44</v>
       </c>
       <c r="C457">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D457">
-        <v>72</v>
-      </c>
-      <c r="E457">
-        <v>104315</v>
+        <v>75</v>
+      </c>
+      <c r="E457" s="3">
+        <v>124878</v>
       </c>
       <c r="F457">
         <v>2</v>
@@ -19416,74 +19443,74 @@
         <v>0</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I457">
-        <v>100</v>
+        <v>99.94</v>
       </c>
       <c r="J457">
         <v>0</v>
       </c>
       <c r="K457">
-        <v>68.89</v>
+        <v>25.86</v>
       </c>
       <c r="L457">
-        <v>31.11</v>
+        <v>74.14</v>
       </c>
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="B458" t="s">
         <v>44</v>
       </c>
       <c r="C458">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D458">
-        <v>66</v>
-      </c>
-      <c r="E458">
-        <v>93036</v>
+        <v>75</v>
+      </c>
+      <c r="E458" s="3">
+        <v>146653</v>
       </c>
       <c r="F458">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G458">
         <v>0</v>
       </c>
       <c r="H458">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I458">
-        <v>99.99</v>
+        <v>100</v>
       </c>
       <c r="J458">
         <v>0</v>
       </c>
       <c r="K458">
-        <v>74.819999999999993</v>
+        <v>11.9</v>
       </c>
       <c r="L458">
-        <v>25.18</v>
+        <v>88.1</v>
       </c>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B459" t="s">
         <v>44</v>
       </c>
       <c r="C459">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D459">
-        <v>65</v>
-      </c>
-      <c r="E459">
-        <v>83844</v>
+        <v>76</v>
+      </c>
+      <c r="E459" s="3">
+        <v>115797</v>
       </c>
       <c r="F459">
         <v>2</v>
@@ -19498,106 +19525,106 @@
         <v>100</v>
       </c>
       <c r="J459">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="K459">
-        <v>74.69</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="L459">
-        <v>25.05</v>
+        <v>90.88</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B460" t="s">
         <v>44</v>
       </c>
       <c r="C460">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D460">
-        <v>66</v>
-      </c>
-      <c r="E460">
-        <v>87414</v>
+        <v>76</v>
+      </c>
+      <c r="E460" s="3">
+        <v>87827</v>
       </c>
       <c r="F460">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G460">
         <v>0</v>
       </c>
       <c r="H460">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="I460">
-        <v>99.83</v>
+        <v>100</v>
       </c>
       <c r="J460">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="K460">
-        <v>71.73</v>
+        <v>68.75</v>
       </c>
       <c r="L460">
-        <v>25.43</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="B461" t="s">
         <v>44</v>
       </c>
       <c r="C461">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D461">
-        <v>66</v>
-      </c>
-      <c r="E461">
-        <v>110532</v>
+        <v>76</v>
+      </c>
+      <c r="E461" s="3">
+        <v>118517</v>
       </c>
       <c r="F461">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G461">
         <v>0</v>
       </c>
       <c r="H461">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I461">
-        <v>99.98</v>
+        <v>100</v>
       </c>
       <c r="J461">
         <v>0</v>
       </c>
       <c r="K461">
-        <v>74.02</v>
+        <v>44.72</v>
       </c>
       <c r="L461">
-        <v>25.98</v>
+        <v>55.28</v>
       </c>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="B462" t="s">
         <v>44</v>
       </c>
       <c r="C462">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D462">
-        <v>68</v>
-      </c>
-      <c r="E462">
-        <v>142763</v>
+        <v>77</v>
+      </c>
+      <c r="E462" s="3">
+        <v>129903</v>
       </c>
       <c r="F462">
         <v>2</v>
@@ -19615,27 +19642,27 @@
         <v>0</v>
       </c>
       <c r="K462">
-        <v>12.85</v>
+        <v>13.64</v>
       </c>
       <c r="L462">
-        <v>87.15</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="B463" t="s">
         <v>44</v>
       </c>
       <c r="C463">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D463">
-        <v>76</v>
-      </c>
-      <c r="E463">
-        <v>115797</v>
+        <v>77</v>
+      </c>
+      <c r="E463" s="3">
+        <v>113878</v>
       </c>
       <c r="F463">
         <v>2</v>
@@ -19653,27 +19680,27 @@
         <v>0</v>
       </c>
       <c r="K463">
-        <v>9.1199999999999992</v>
+        <v>4.07</v>
       </c>
       <c r="L463">
-        <v>90.88</v>
+        <v>95.93</v>
       </c>
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="B464" t="s">
         <v>44</v>
       </c>
       <c r="C464">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D464">
-        <v>67</v>
-      </c>
-      <c r="E464">
-        <v>97414</v>
+        <v>77</v>
+      </c>
+      <c r="E464" s="3">
+        <v>107997</v>
       </c>
       <c r="F464">
         <v>2</v>
@@ -19682,74 +19709,74 @@
         <v>0</v>
       </c>
       <c r="H464">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I464">
-        <v>99.94</v>
+        <v>100</v>
       </c>
       <c r="J464">
-        <v>4.2300000000000004</v>
+        <v>0</v>
       </c>
       <c r="K464">
-        <v>68.25</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="L464">
-        <v>27.52</v>
+        <v>91.62</v>
       </c>
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="B465" t="s">
         <v>44</v>
       </c>
       <c r="C465">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D465">
-        <v>96</v>
-      </c>
-      <c r="E465">
-        <v>93037</v>
+        <v>77</v>
+      </c>
+      <c r="E465" s="3">
+        <v>166956</v>
       </c>
       <c r="F465">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G465">
         <v>0</v>
       </c>
       <c r="H465">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="I465">
-        <v>99.38</v>
+        <v>100</v>
       </c>
       <c r="J465">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="K465">
-        <v>52.38</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="L465">
-        <v>46.14</v>
+        <v>95.81</v>
       </c>
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="B466" t="s">
         <v>44</v>
       </c>
       <c r="C466">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D466">
-        <v>84</v>
-      </c>
-      <c r="E466">
-        <v>95941</v>
+        <v>78</v>
+      </c>
+      <c r="E466" s="3">
+        <v>97148</v>
       </c>
       <c r="F466">
         <v>2</v>
@@ -19758,36 +19785,36 @@
         <v>0</v>
       </c>
       <c r="H466">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I466">
-        <v>99.98</v>
+        <v>100</v>
       </c>
       <c r="J466">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K466">
-        <v>42.96</v>
+        <v>24.95</v>
       </c>
       <c r="L466">
-        <v>56.84</v>
+        <v>75.05</v>
       </c>
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B467" t="s">
         <v>44</v>
       </c>
       <c r="C467">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D467">
-        <v>87</v>
-      </c>
-      <c r="E467">
-        <v>128257</v>
+        <v>78</v>
+      </c>
+      <c r="E467" s="3">
+        <v>108992</v>
       </c>
       <c r="F467">
         <v>2</v>
@@ -19805,27 +19832,27 @@
         <v>0</v>
       </c>
       <c r="K467">
-        <v>23.96</v>
+        <v>39.03</v>
       </c>
       <c r="L467">
-        <v>76.040000000000006</v>
+        <v>60.97</v>
       </c>
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
       <c r="B468" t="s">
         <v>44</v>
       </c>
       <c r="C468">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D468">
-        <v>76</v>
-      </c>
-      <c r="E468">
-        <v>87827</v>
+        <v>78</v>
+      </c>
+      <c r="E468" s="3">
+        <v>118033</v>
       </c>
       <c r="F468">
         <v>1</v>
@@ -19843,68 +19870,68 @@
         <v>0</v>
       </c>
       <c r="K468">
-        <v>68.75</v>
+        <v>4.22</v>
       </c>
       <c r="L468">
-        <v>31.25</v>
+        <v>95.78</v>
       </c>
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="B469" t="s">
         <v>44</v>
       </c>
       <c r="C469">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D469">
-        <v>87</v>
-      </c>
-      <c r="E469">
-        <v>109141</v>
+        <v>79</v>
+      </c>
+      <c r="E469" s="3">
+        <v>118300</v>
       </c>
       <c r="F469">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G469">
         <v>0</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I469">
-        <v>100</v>
+        <v>99.93</v>
       </c>
       <c r="J469">
         <v>0</v>
       </c>
       <c r="K469">
-        <v>10.85</v>
+        <v>33.72</v>
       </c>
       <c r="L469">
-        <v>89.15</v>
+        <v>66.28</v>
       </c>
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="B470" t="s">
         <v>44</v>
       </c>
       <c r="C470">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D470">
-        <v>87</v>
-      </c>
-      <c r="E470">
-        <v>127146</v>
+        <v>79</v>
+      </c>
+      <c r="E470" s="3">
+        <v>144308</v>
       </c>
       <c r="F470">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G470">
         <v>0</v>
@@ -19919,30 +19946,30 @@
         <v>0</v>
       </c>
       <c r="K470">
-        <v>46.26</v>
+        <v>13.95</v>
       </c>
       <c r="L470">
-        <v>53.74</v>
+        <v>86.05</v>
       </c>
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="B471" t="s">
         <v>44</v>
       </c>
       <c r="C471">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D471">
-        <v>72</v>
-      </c>
-      <c r="E471">
-        <v>118142</v>
+        <v>80</v>
+      </c>
+      <c r="E471" s="3">
+        <v>135800</v>
       </c>
       <c r="F471">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G471">
         <v>0</v>
@@ -19957,27 +19984,27 @@
         <v>0</v>
       </c>
       <c r="K471">
-        <v>52.59</v>
+        <v>23.58</v>
       </c>
       <c r="L471">
-        <v>47.41</v>
+        <v>76.42</v>
       </c>
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B472" t="s">
         <v>44</v>
       </c>
       <c r="C472">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D472">
-        <v>84</v>
-      </c>
-      <c r="E472">
-        <v>106759</v>
+        <v>80</v>
+      </c>
+      <c r="E472" s="3">
+        <v>101292</v>
       </c>
       <c r="F472">
         <v>1</v>
@@ -19995,27 +20022,27 @@
         <v>0</v>
       </c>
       <c r="K472">
-        <v>5.49</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="L472">
-        <v>94.51</v>
+        <v>60.62</v>
       </c>
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="B473" t="s">
         <v>44</v>
       </c>
       <c r="C473">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D473">
-        <v>88</v>
-      </c>
-      <c r="E473">
-        <v>127883</v>
+        <v>80</v>
+      </c>
+      <c r="E473" s="3">
+        <v>91669</v>
       </c>
       <c r="F473">
         <v>1</v>
@@ -20033,27 +20060,27 @@
         <v>0</v>
       </c>
       <c r="K473">
-        <v>8</v>
+        <v>59.16</v>
       </c>
       <c r="L473">
-        <v>92</v>
+        <v>40.840000000000003</v>
       </c>
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="B474" t="s">
         <v>44</v>
       </c>
       <c r="C474">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D474">
-        <v>75</v>
-      </c>
-      <c r="E474">
-        <v>146653</v>
+        <v>80</v>
+      </c>
+      <c r="E474" s="3">
+        <v>134212</v>
       </c>
       <c r="F474">
         <v>1</v>
@@ -20071,30 +20098,30 @@
         <v>0</v>
       </c>
       <c r="K474">
-        <v>11.9</v>
+        <v>2.02</v>
       </c>
       <c r="L474">
-        <v>88.1</v>
+        <v>97.98</v>
       </c>
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="B475" t="s">
         <v>44</v>
       </c>
       <c r="C475">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D475">
-        <v>99</v>
-      </c>
-      <c r="E475">
-        <v>87046</v>
+        <v>81</v>
+      </c>
+      <c r="E475" s="3">
+        <v>117829</v>
       </c>
       <c r="F475">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G475">
         <v>0</v>
@@ -20109,10 +20136,10 @@
         <v>0</v>
       </c>
       <c r="K475">
-        <v>66.239999999999995</v>
+        <v>5.33</v>
       </c>
       <c r="L475">
-        <v>33.76</v>
+        <v>94.67</v>
       </c>
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.2">
@@ -20128,7 +20155,7 @@
       <c r="D476">
         <v>81</v>
       </c>
-      <c r="E476">
+      <c r="E476" s="3">
         <v>104054</v>
       </c>
       <c r="F476">
@@ -20155,19 +20182,19 @@
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>490</v>
+        <v>532</v>
       </c>
       <c r="B477" t="s">
         <v>44</v>
       </c>
       <c r="C477">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D477">
-        <v>99</v>
-      </c>
-      <c r="E477">
-        <v>122423</v>
+        <v>81</v>
+      </c>
+      <c r="E477" s="3">
+        <v>124933</v>
       </c>
       <c r="F477">
         <v>1</v>
@@ -20185,30 +20212,30 @@
         <v>0</v>
       </c>
       <c r="K477">
-        <v>15.53</v>
+        <v>8.82</v>
       </c>
       <c r="L477">
-        <v>84.47</v>
+        <v>91.18</v>
       </c>
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="B478" t="s">
         <v>44</v>
       </c>
       <c r="C478">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D478">
-        <v>91</v>
-      </c>
-      <c r="E478">
-        <v>103748</v>
+        <v>82</v>
+      </c>
+      <c r="E478" s="3">
+        <v>126400</v>
       </c>
       <c r="F478">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G478">
         <v>0</v>
@@ -20223,30 +20250,30 @@
         <v>0</v>
       </c>
       <c r="K478">
-        <v>33.520000000000003</v>
+        <v>11.99</v>
       </c>
       <c r="L478">
-        <v>66.48</v>
+        <v>88.01</v>
       </c>
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="B479" t="s">
         <v>44</v>
       </c>
       <c r="C479">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D479">
-        <v>98</v>
-      </c>
-      <c r="E479">
-        <v>122106</v>
+        <v>83</v>
+      </c>
+      <c r="E479" s="3">
+        <v>126628</v>
       </c>
       <c r="F479">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G479">
         <v>0</v>
@@ -20261,65 +20288,65 @@
         <v>0</v>
       </c>
       <c r="K479">
-        <v>4.55</v>
+        <v>7.83</v>
       </c>
       <c r="L479">
-        <v>95.45</v>
+        <v>92.17</v>
       </c>
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B480" t="s">
         <v>44</v>
       </c>
       <c r="C480">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D480">
-        <v>80</v>
-      </c>
-      <c r="E480">
-        <v>101292</v>
+        <v>84</v>
+      </c>
+      <c r="E480" s="3">
+        <v>95941</v>
       </c>
       <c r="F480">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G480">
         <v>0</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I480">
-        <v>100</v>
+        <v>99.98</v>
       </c>
       <c r="J480">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K480">
-        <v>39.380000000000003</v>
+        <v>42.96</v>
       </c>
       <c r="L480">
-        <v>60.62</v>
+        <v>56.84</v>
       </c>
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="B481" t="s">
         <v>44</v>
       </c>
       <c r="C481">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D481">
         <v>84</v>
       </c>
-      <c r="E481">
-        <v>109827</v>
+      <c r="E481" s="3">
+        <v>106759</v>
       </c>
       <c r="F481">
         <v>1</v>
@@ -20337,15 +20364,15 @@
         <v>0</v>
       </c>
       <c r="K481">
-        <v>0.28000000000000003</v>
+        <v>5.49</v>
       </c>
       <c r="L481">
-        <v>99.72</v>
+        <v>94.51</v>
       </c>
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B482" t="s">
         <v>44</v>
@@ -20354,10 +20381,10 @@
         <v>90</v>
       </c>
       <c r="D482">
-        <v>74</v>
-      </c>
-      <c r="E482">
-        <v>124410</v>
+        <v>84</v>
+      </c>
+      <c r="E482" s="3">
+        <v>109827</v>
       </c>
       <c r="F482">
         <v>1</v>
@@ -20375,27 +20402,27 @@
         <v>0</v>
       </c>
       <c r="K482">
-        <v>48.59</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L482">
-        <v>51.41</v>
+        <v>99.72</v>
       </c>
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="B483" t="s">
         <v>44</v>
       </c>
       <c r="C483">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D483">
-        <v>76</v>
-      </c>
-      <c r="E483">
-        <v>118517</v>
+        <v>85</v>
+      </c>
+      <c r="E483" s="3">
+        <v>90222</v>
       </c>
       <c r="F483">
         <v>1</v>
@@ -20413,27 +20440,27 @@
         <v>0</v>
       </c>
       <c r="K483">
-        <v>44.72</v>
+        <v>13.57</v>
       </c>
       <c r="L483">
-        <v>55.28</v>
+        <v>86.43</v>
       </c>
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="B484" t="s">
         <v>44</v>
       </c>
       <c r="C484">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D484">
-        <v>69</v>
-      </c>
-      <c r="E484">
-        <v>100127</v>
+        <v>85</v>
+      </c>
+      <c r="E484" s="3">
+        <v>91317</v>
       </c>
       <c r="F484">
         <v>1</v>
@@ -20451,27 +20478,27 @@
         <v>0</v>
       </c>
       <c r="K484">
-        <v>47.86</v>
+        <v>12.31</v>
       </c>
       <c r="L484">
-        <v>52.14</v>
+        <v>87.69</v>
       </c>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="B485" t="s">
         <v>44</v>
       </c>
       <c r="C485">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D485">
-        <v>64</v>
-      </c>
-      <c r="E485">
-        <v>112024</v>
+        <v>85</v>
+      </c>
+      <c r="E485" s="3">
+        <v>100964</v>
       </c>
       <c r="F485">
         <v>1</v>
@@ -20489,27 +20516,27 @@
         <v>0</v>
       </c>
       <c r="K485">
-        <v>76.81</v>
+        <v>15.04</v>
       </c>
       <c r="L485">
-        <v>23.19</v>
+        <v>84.96</v>
       </c>
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="B486" t="s">
         <v>44</v>
       </c>
       <c r="C486">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D486">
-        <v>73</v>
-      </c>
-      <c r="E486">
-        <v>128032</v>
+        <v>86</v>
+      </c>
+      <c r="E486" s="3">
+        <v>104889</v>
       </c>
       <c r="F486">
         <v>1</v>
@@ -20524,30 +20551,30 @@
         <v>100</v>
       </c>
       <c r="J486">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="K486">
-        <v>9.69</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="L486">
-        <v>90.31</v>
+        <v>67.42</v>
       </c>
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>500</v>
+        <v>535</v>
       </c>
       <c r="B487" t="s">
         <v>44</v>
       </c>
       <c r="C487">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D487">
-        <v>70</v>
-      </c>
-      <c r="E487">
-        <v>109606</v>
+        <v>86</v>
+      </c>
+      <c r="E487" s="3">
+        <v>151891</v>
       </c>
       <c r="F487">
         <v>1</v>
@@ -20565,27 +20592,27 @@
         <v>0</v>
       </c>
       <c r="K487">
-        <v>62.24</v>
+        <v>3.4</v>
       </c>
       <c r="L487">
-        <v>37.76</v>
+        <v>96.6</v>
       </c>
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="B488" t="s">
         <v>44</v>
       </c>
       <c r="C488">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D488">
-        <v>95</v>
-      </c>
-      <c r="E488">
-        <v>129174</v>
+        <v>86</v>
+      </c>
+      <c r="E488" s="3">
+        <v>111399</v>
       </c>
       <c r="F488">
         <v>1</v>
@@ -20594,74 +20621,74 @@
         <v>0</v>
       </c>
       <c r="H488">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I488">
-        <v>99.97</v>
+        <v>100</v>
       </c>
       <c r="J488">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K488">
-        <v>32.92</v>
+        <v>53.15</v>
       </c>
       <c r="L488">
-        <v>67.08</v>
+        <v>46.65</v>
       </c>
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="B489" t="s">
         <v>44</v>
       </c>
       <c r="C489">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D489">
-        <v>96</v>
-      </c>
-      <c r="E489">
-        <v>80393</v>
+        <v>87</v>
+      </c>
+      <c r="E489" s="3">
+        <v>128257</v>
       </c>
       <c r="F489">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G489">
         <v>0</v>
       </c>
       <c r="H489">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="I489">
-        <v>98.65</v>
+        <v>100</v>
       </c>
       <c r="J489">
-        <v>4.47</v>
+        <v>0</v>
       </c>
       <c r="K489">
-        <v>61.5</v>
+        <v>23.96</v>
       </c>
       <c r="L489">
-        <v>34.03</v>
+        <v>76.040000000000006</v>
       </c>
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="B490" t="s">
         <v>44</v>
       </c>
       <c r="C490">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D490">
-        <v>100</v>
-      </c>
-      <c r="E490">
-        <v>92639</v>
+        <v>87</v>
+      </c>
+      <c r="E490" s="3">
+        <v>109141</v>
       </c>
       <c r="F490">
         <v>1</v>
@@ -20679,27 +20706,27 @@
         <v>0</v>
       </c>
       <c r="K490">
-        <v>50.4</v>
+        <v>10.85</v>
       </c>
       <c r="L490">
-        <v>49.6</v>
+        <v>89.15</v>
       </c>
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="B491" t="s">
         <v>44</v>
       </c>
       <c r="C491">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D491">
-        <v>77</v>
-      </c>
-      <c r="E491">
-        <v>166956</v>
+        <v>87</v>
+      </c>
+      <c r="E491" s="3">
+        <v>127146</v>
       </c>
       <c r="F491">
         <v>1</v>
@@ -20717,27 +20744,27 @@
         <v>0</v>
       </c>
       <c r="K491">
-        <v>4.1900000000000004</v>
+        <v>46.26</v>
       </c>
       <c r="L491">
-        <v>95.81</v>
+        <v>53.74</v>
       </c>
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="B492" t="s">
         <v>44</v>
       </c>
       <c r="C492">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D492">
-        <v>89</v>
-      </c>
-      <c r="E492">
-        <v>92114</v>
+        <v>87</v>
+      </c>
+      <c r="E492" s="3">
+        <v>113169</v>
       </c>
       <c r="F492">
         <v>1</v>
@@ -20746,36 +20773,36 @@
         <v>0</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I492">
-        <v>100</v>
+        <v>99.99</v>
       </c>
       <c r="J492">
         <v>0</v>
       </c>
       <c r="K492">
-        <v>23.69</v>
+        <v>35.17</v>
       </c>
       <c r="L492">
-        <v>76.31</v>
+        <v>64.83</v>
       </c>
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="B493" t="s">
         <v>44</v>
       </c>
       <c r="C493">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D493">
-        <v>71</v>
-      </c>
-      <c r="E493">
-        <v>149717</v>
+        <v>87</v>
+      </c>
+      <c r="E493" s="3">
+        <v>99054</v>
       </c>
       <c r="F493">
         <v>1</v>
@@ -20793,30 +20820,30 @@
         <v>0</v>
       </c>
       <c r="K493">
-        <v>1.85</v>
+        <v>11.93</v>
       </c>
       <c r="L493">
-        <v>98.15</v>
+        <v>88.07</v>
       </c>
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>507</v>
+        <v>441</v>
       </c>
       <c r="B494" t="s">
         <v>44</v>
       </c>
       <c r="C494">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D494">
-        <v>85</v>
-      </c>
-      <c r="E494">
-        <v>90222</v>
+        <v>88</v>
+      </c>
+      <c r="E494" s="3">
+        <v>107677</v>
       </c>
       <c r="F494">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G494">
         <v>0</v>
@@ -20831,65 +20858,65 @@
         <v>0</v>
       </c>
       <c r="K494">
-        <v>13.57</v>
+        <v>12.37</v>
       </c>
       <c r="L494">
-        <v>86.43</v>
+        <v>87.63</v>
       </c>
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>508</v>
+        <v>452</v>
       </c>
       <c r="B495" t="s">
         <v>44</v>
       </c>
       <c r="C495">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D495">
-        <v>94</v>
-      </c>
-      <c r="E495">
-        <v>90618</v>
+        <v>88</v>
+      </c>
+      <c r="E495" s="3">
+        <v>111827</v>
       </c>
       <c r="F495">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G495">
         <v>0</v>
       </c>
       <c r="H495">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I495">
-        <v>99.98</v>
+        <v>100</v>
       </c>
       <c r="J495">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="K495">
-        <v>39.69</v>
+        <v>12.67</v>
       </c>
       <c r="L495">
-        <v>59.87</v>
+        <v>87.33</v>
       </c>
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="B496" t="s">
         <v>44</v>
       </c>
       <c r="C496">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D496">
-        <v>67</v>
-      </c>
-      <c r="E496">
-        <v>95976</v>
+        <v>88</v>
+      </c>
+      <c r="E496" s="3">
+        <v>127883</v>
       </c>
       <c r="F496">
         <v>1</v>
@@ -20898,36 +20925,36 @@
         <v>0</v>
       </c>
       <c r="H496">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I496">
-        <v>99.91</v>
+        <v>100</v>
       </c>
       <c r="J496">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K496">
-        <v>68.23</v>
+        <v>8</v>
       </c>
       <c r="L496">
-        <v>31.62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B497" t="s">
         <v>44</v>
       </c>
       <c r="C497">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D497">
-        <v>80</v>
-      </c>
-      <c r="E497">
-        <v>91669</v>
+        <v>88</v>
+      </c>
+      <c r="E497" s="3">
+        <v>125347</v>
       </c>
       <c r="F497">
         <v>1</v>
@@ -20945,27 +20972,27 @@
         <v>0</v>
       </c>
       <c r="K497">
-        <v>59.16</v>
+        <v>32</v>
       </c>
       <c r="L497">
-        <v>40.840000000000003</v>
+        <v>68</v>
       </c>
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="B498" t="s">
         <v>44</v>
       </c>
       <c r="C498">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D498">
-        <v>85</v>
-      </c>
-      <c r="E498">
-        <v>91317</v>
+        <v>88</v>
+      </c>
+      <c r="E498" s="3">
+        <v>93311</v>
       </c>
       <c r="F498">
         <v>1</v>
@@ -20983,30 +21010,30 @@
         <v>0</v>
       </c>
       <c r="K498">
-        <v>12.31</v>
+        <v>40.450000000000003</v>
       </c>
       <c r="L498">
-        <v>87.69</v>
+        <v>59.55</v>
       </c>
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>512</v>
+        <v>445</v>
       </c>
       <c r="B499" t="s">
         <v>44</v>
       </c>
       <c r="C499">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D499">
-        <v>68</v>
-      </c>
-      <c r="E499">
-        <v>143024</v>
+        <v>89</v>
+      </c>
+      <c r="E499" s="3">
+        <v>108751</v>
       </c>
       <c r="F499">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G499">
         <v>0</v>
@@ -21021,65 +21048,65 @@
         <v>0</v>
       </c>
       <c r="K499">
-        <v>11.77</v>
+        <v>48.74</v>
       </c>
       <c r="L499">
-        <v>88.23</v>
+        <v>51.26</v>
       </c>
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>513</v>
+        <v>467</v>
       </c>
       <c r="B500" t="s">
         <v>44</v>
       </c>
       <c r="C500">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D500">
-        <v>88</v>
-      </c>
-      <c r="E500">
-        <v>125347</v>
+        <v>89</v>
+      </c>
+      <c r="E500" s="3">
+        <v>123502</v>
       </c>
       <c r="F500">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G500">
         <v>0</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I500">
-        <v>100</v>
+        <v>99.98</v>
       </c>
       <c r="J500">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="K500">
-        <v>32</v>
+        <v>46.94</v>
       </c>
       <c r="L500">
-        <v>68</v>
+        <v>51.63</v>
       </c>
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B501" t="s">
         <v>44</v>
       </c>
       <c r="C501">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D501">
-        <v>99</v>
-      </c>
-      <c r="E501">
-        <v>184091</v>
+        <v>89</v>
+      </c>
+      <c r="E501" s="3">
+        <v>92114</v>
       </c>
       <c r="F501">
         <v>1</v>
@@ -21097,27 +21124,27 @@
         <v>0</v>
       </c>
       <c r="K501">
-        <v>1.25</v>
+        <v>23.69</v>
       </c>
       <c r="L501">
-        <v>98.75</v>
+        <v>76.31</v>
       </c>
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="B502" t="s">
         <v>44</v>
       </c>
       <c r="C502">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D502">
-        <v>78</v>
-      </c>
-      <c r="E502">
-        <v>118033</v>
+        <v>89</v>
+      </c>
+      <c r="E502" s="3">
+        <v>156302</v>
       </c>
       <c r="F502">
         <v>1</v>
@@ -21135,27 +21162,27 @@
         <v>0</v>
       </c>
       <c r="K502">
-        <v>4.22</v>
+        <v>35.130000000000003</v>
       </c>
       <c r="L502">
-        <v>95.78</v>
+        <v>64.87</v>
       </c>
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="B503" t="s">
         <v>44</v>
       </c>
       <c r="C503">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D503">
-        <v>80</v>
-      </c>
-      <c r="E503">
-        <v>134212</v>
+        <v>89</v>
+      </c>
+      <c r="E503" s="3">
+        <v>94779</v>
       </c>
       <c r="F503">
         <v>1</v>
@@ -21173,30 +21200,30 @@
         <v>0</v>
       </c>
       <c r="K503">
-        <v>2.02</v>
+        <v>27</v>
       </c>
       <c r="L503">
-        <v>97.98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>517</v>
+        <v>458</v>
       </c>
       <c r="B504" t="s">
         <v>44</v>
       </c>
       <c r="C504">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D504">
-        <v>85</v>
-      </c>
-      <c r="E504">
-        <v>100964</v>
+        <v>90</v>
+      </c>
+      <c r="E504" s="3">
+        <v>100271</v>
       </c>
       <c r="F504">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G504">
         <v>0</v>
@@ -21211,27 +21238,27 @@
         <v>0</v>
       </c>
       <c r="K504">
-        <v>15.04</v>
+        <v>34.26</v>
       </c>
       <c r="L504">
-        <v>84.96</v>
+        <v>65.739999999999995</v>
       </c>
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B505" t="s">
         <v>44</v>
       </c>
       <c r="C505">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D505">
-        <v>67</v>
-      </c>
-      <c r="E505">
-        <v>96424</v>
+        <v>90</v>
+      </c>
+      <c r="E505" s="3">
+        <v>97076</v>
       </c>
       <c r="F505">
         <v>1</v>
@@ -21246,30 +21273,30 @@
         <v>100</v>
       </c>
       <c r="J505">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="K505">
-        <v>73.06</v>
+        <v>56.27</v>
       </c>
       <c r="L505">
-        <v>26.94</v>
+        <v>43.65</v>
       </c>
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="B506" t="s">
         <v>44</v>
       </c>
       <c r="C506">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D506">
-        <v>87</v>
-      </c>
-      <c r="E506">
-        <v>113169</v>
+        <v>90</v>
+      </c>
+      <c r="E506" s="3">
+        <v>120229</v>
       </c>
       <c r="F506">
         <v>1</v>
@@ -21278,39 +21305,39 @@
         <v>0</v>
       </c>
       <c r="H506">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I506">
-        <v>99.99</v>
+        <v>100</v>
       </c>
       <c r="J506">
         <v>0</v>
       </c>
       <c r="K506">
-        <v>35.17</v>
+        <v>26.55</v>
       </c>
       <c r="L506">
-        <v>64.83</v>
+        <v>73.45</v>
       </c>
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="B507" t="s">
         <v>44</v>
       </c>
       <c r="C507">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D507">
-        <v>86</v>
-      </c>
-      <c r="E507">
-        <v>104889</v>
+        <v>91</v>
+      </c>
+      <c r="E507" s="3">
+        <v>98778</v>
       </c>
       <c r="F507">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G507">
         <v>0</v>
@@ -21322,33 +21349,33 @@
         <v>100</v>
       </c>
       <c r="J507">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K507">
-        <v>32.520000000000003</v>
+        <v>52.05</v>
       </c>
       <c r="L507">
-        <v>67.42</v>
+        <v>47.95</v>
       </c>
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>521</v>
+        <v>453</v>
       </c>
       <c r="B508" t="s">
         <v>44</v>
       </c>
       <c r="C508">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D508">
-        <v>99</v>
-      </c>
-      <c r="E508">
-        <v>103333</v>
+        <v>91</v>
+      </c>
+      <c r="E508" s="3">
+        <v>107639</v>
       </c>
       <c r="F508">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G508">
         <v>0</v>
@@ -21360,30 +21387,30 @@
         <v>100</v>
       </c>
       <c r="J508">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K508">
-        <v>45.15</v>
+        <v>53.5</v>
       </c>
       <c r="L508">
-        <v>54.85</v>
+        <v>46.48</v>
       </c>
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>522</v>
+        <v>491</v>
       </c>
       <c r="B509" t="s">
         <v>44</v>
       </c>
       <c r="C509">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D509">
-        <v>71</v>
-      </c>
-      <c r="E509">
-        <v>106440</v>
+        <v>91</v>
+      </c>
+      <c r="E509" s="3">
+        <v>103748</v>
       </c>
       <c r="F509">
         <v>1</v>
@@ -21398,33 +21425,33 @@
         <v>100</v>
       </c>
       <c r="J509">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="K509">
-        <v>42.87</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="L509">
-        <v>54.55</v>
+        <v>66.48</v>
       </c>
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>523</v>
+        <v>447</v>
       </c>
       <c r="B510" t="s">
         <v>44</v>
       </c>
       <c r="C510">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D510">
-        <v>87</v>
-      </c>
-      <c r="E510">
-        <v>99054</v>
+        <v>92</v>
+      </c>
+      <c r="E510" s="3">
+        <v>93196</v>
       </c>
       <c r="F510">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -21436,33 +21463,33 @@
         <v>100</v>
       </c>
       <c r="J510">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K510">
-        <v>11.93</v>
+        <v>53.39</v>
       </c>
       <c r="L510">
-        <v>88.07</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>524</v>
+        <v>456</v>
       </c>
       <c r="B511" t="s">
         <v>44</v>
       </c>
       <c r="C511">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D511">
-        <v>90</v>
-      </c>
-      <c r="E511">
-        <v>97076</v>
+        <v>92</v>
+      </c>
+      <c r="E511" s="3">
+        <v>106827</v>
       </c>
       <c r="F511">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G511">
         <v>0</v>
@@ -21474,33 +21501,33 @@
         <v>100</v>
       </c>
       <c r="J511">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="K511">
-        <v>56.27</v>
+        <v>29.27</v>
       </c>
       <c r="L511">
-        <v>43.65</v>
+        <v>70.73</v>
       </c>
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>525</v>
+        <v>461</v>
       </c>
       <c r="B512" t="s">
         <v>44</v>
       </c>
       <c r="C512">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D512">
         <v>92</v>
       </c>
-      <c r="E512">
-        <v>107568</v>
+      <c r="E512" s="3">
+        <v>116704</v>
       </c>
       <c r="F512">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G512">
         <v>0</v>
@@ -21515,15 +21542,15 @@
         <v>0</v>
       </c>
       <c r="K512">
-        <v>51.05</v>
+        <v>50.93</v>
       </c>
       <c r="L512">
-        <v>48.95</v>
+        <v>49.07</v>
       </c>
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B513" t="s">
         <v>44</v>
@@ -21532,10 +21559,10 @@
         <v>96</v>
       </c>
       <c r="D513">
-        <v>69</v>
-      </c>
-      <c r="E513">
-        <v>121913</v>
+        <v>92</v>
+      </c>
+      <c r="E513" s="3">
+        <v>107568</v>
       </c>
       <c r="F513">
         <v>1</v>
@@ -21553,27 +21580,27 @@
         <v>0</v>
       </c>
       <c r="K513">
-        <v>50.99</v>
+        <v>51.05</v>
       </c>
       <c r="L513">
-        <v>49.01</v>
+        <v>48.95</v>
       </c>
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="B514" t="s">
         <v>44</v>
       </c>
       <c r="C514">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D514">
-        <v>98</v>
-      </c>
-      <c r="E514">
-        <v>139639</v>
+        <v>92</v>
+      </c>
+      <c r="E514" s="3">
+        <v>99360</v>
       </c>
       <c r="F514">
         <v>1</v>
@@ -21591,30 +21618,30 @@
         <v>0</v>
       </c>
       <c r="K514">
-        <v>5.35</v>
+        <v>46.59</v>
       </c>
       <c r="L514">
-        <v>94.65</v>
+        <v>53.41</v>
       </c>
     </row>
     <row r="515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>528</v>
+        <v>464</v>
       </c>
       <c r="B515" t="s">
         <v>44</v>
       </c>
       <c r="C515">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D515">
-        <v>100</v>
-      </c>
-      <c r="E515">
-        <v>96940</v>
+        <v>93</v>
+      </c>
+      <c r="E515" s="3">
+        <v>167285</v>
       </c>
       <c r="F515">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G515">
         <v>0</v>
@@ -21629,65 +21656,65 @@
         <v>0</v>
       </c>
       <c r="K515">
-        <v>23.36</v>
+        <v>9.41</v>
       </c>
       <c r="L515">
-        <v>76.64</v>
+        <v>90.59</v>
       </c>
     </row>
     <row r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>529</v>
+        <v>450</v>
       </c>
       <c r="B516" t="s">
         <v>44</v>
       </c>
       <c r="C516">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D516">
-        <v>70</v>
-      </c>
-      <c r="E516">
-        <v>101381</v>
+        <v>94</v>
+      </c>
+      <c r="E516" s="3">
+        <v>105870</v>
       </c>
       <c r="F516">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G516">
         <v>0</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="I516">
-        <v>100</v>
+        <v>99.56</v>
       </c>
       <c r="J516">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="K516">
-        <v>60.79</v>
+        <v>64.64</v>
       </c>
       <c r="L516">
-        <v>39.21</v>
+        <v>34.880000000000003</v>
       </c>
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="B517" t="s">
         <v>44</v>
       </c>
       <c r="C517">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D517">
-        <v>67</v>
-      </c>
-      <c r="E517">
-        <v>145889</v>
+        <v>94</v>
+      </c>
+      <c r="E517" s="3">
+        <v>90618</v>
       </c>
       <c r="F517">
         <v>1</v>
@@ -21696,39 +21723,39 @@
         <v>0</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I517">
-        <v>100</v>
+        <v>99.98</v>
       </c>
       <c r="J517">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="K517">
-        <v>19.920000000000002</v>
+        <v>39.69</v>
       </c>
       <c r="L517">
-        <v>80.08</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>531</v>
+        <v>443</v>
       </c>
       <c r="B518" t="s">
         <v>44</v>
       </c>
       <c r="C518">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D518">
-        <v>70</v>
-      </c>
-      <c r="E518">
-        <v>112441</v>
+        <v>95</v>
+      </c>
+      <c r="E518" s="3">
+        <v>117818</v>
       </c>
       <c r="F518">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G518">
         <v>0</v>
@@ -21740,68 +21767,68 @@
         <v>100</v>
       </c>
       <c r="J518">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="K518">
-        <v>53.51</v>
+        <v>40.479999999999997</v>
       </c>
       <c r="L518">
-        <v>46.4</v>
+        <v>59.52</v>
       </c>
     </row>
     <row r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>532</v>
+        <v>460</v>
       </c>
       <c r="B519" t="s">
         <v>44</v>
       </c>
       <c r="C519">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D519">
-        <v>81</v>
-      </c>
-      <c r="E519">
-        <v>124933</v>
+        <v>95</v>
+      </c>
+      <c r="E519" s="3">
+        <v>94026</v>
       </c>
       <c r="F519">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G519">
         <v>0</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I519">
-        <v>100</v>
+        <v>99.86</v>
       </c>
       <c r="J519">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K519">
-        <v>8.82</v>
+        <v>57.39</v>
       </c>
       <c r="L519">
-        <v>91.18</v>
+        <v>42.54</v>
       </c>
     </row>
     <row r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>533</v>
+        <v>501</v>
       </c>
       <c r="B520" t="s">
         <v>44</v>
       </c>
       <c r="C520">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D520">
-        <v>89</v>
-      </c>
-      <c r="E520">
-        <v>156302</v>
+        <v>95</v>
+      </c>
+      <c r="E520" s="3">
+        <v>129174</v>
       </c>
       <c r="F520">
         <v>1</v>
@@ -21810,19 +21837,19 @@
         <v>0</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I520">
-        <v>100</v>
+        <v>99.97</v>
       </c>
       <c r="J520">
         <v>0</v>
       </c>
       <c r="K520">
-        <v>35.130000000000003</v>
+        <v>32.92</v>
       </c>
       <c r="L520">
-        <v>64.87</v>
+        <v>67.08</v>
       </c>
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.2">
@@ -21838,7 +21865,7 @@
       <c r="D521">
         <v>95</v>
       </c>
-      <c r="E521">
+      <c r="E521" s="3">
         <v>109078</v>
       </c>
       <c r="F521">
@@ -21865,22 +21892,22 @@
     </row>
     <row r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>535</v>
+        <v>449</v>
       </c>
       <c r="B522" t="s">
         <v>44</v>
       </c>
       <c r="C522">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D522">
-        <v>86</v>
-      </c>
-      <c r="E522">
-        <v>151891</v>
+        <v>96</v>
+      </c>
+      <c r="E522" s="3">
+        <v>152083</v>
       </c>
       <c r="F522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G522">
         <v>0</v>
@@ -21895,65 +21922,65 @@
         <v>0</v>
       </c>
       <c r="K522">
-        <v>3.4</v>
+        <v>47.55</v>
       </c>
       <c r="L522">
-        <v>96.6</v>
+        <v>52.45</v>
       </c>
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>536</v>
+        <v>478</v>
       </c>
       <c r="B523" t="s">
         <v>44</v>
       </c>
       <c r="C523">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D523">
-        <v>71</v>
-      </c>
-      <c r="E523">
-        <v>121816</v>
+        <v>96</v>
+      </c>
+      <c r="E523" s="3">
+        <v>93037</v>
       </c>
       <c r="F523">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G523">
         <v>0</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="I523">
-        <v>100</v>
+        <v>99.38</v>
       </c>
       <c r="J523">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="K523">
-        <v>24.82</v>
+        <v>52.38</v>
       </c>
       <c r="L523">
-        <v>75.180000000000007</v>
+        <v>46.14</v>
       </c>
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
       <c r="B524" t="s">
         <v>44</v>
       </c>
       <c r="C524">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D524">
-        <v>90</v>
-      </c>
-      <c r="E524">
-        <v>120229</v>
+        <v>96</v>
+      </c>
+      <c r="E524" s="3">
+        <v>80393</v>
       </c>
       <c r="F524">
         <v>1</v>
@@ -21962,77 +21989,77 @@
         <v>0</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="I524">
-        <v>100</v>
+        <v>98.65</v>
       </c>
       <c r="J524">
-        <v>0</v>
+        <v>4.47</v>
       </c>
       <c r="K524">
-        <v>26.55</v>
+        <v>61.5</v>
       </c>
       <c r="L524">
-        <v>73.45</v>
+        <v>34.03</v>
       </c>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="B525" t="s">
         <v>44</v>
       </c>
       <c r="C525">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D525">
-        <v>70</v>
-      </c>
-      <c r="E525">
-        <v>116961</v>
+        <v>97</v>
+      </c>
+      <c r="E525" s="3">
+        <v>131435</v>
       </c>
       <c r="F525">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G525">
         <v>0</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I525">
-        <v>100</v>
+        <v>99.94</v>
       </c>
       <c r="J525">
         <v>0</v>
       </c>
       <c r="K525">
-        <v>48.75</v>
+        <v>50.61</v>
       </c>
       <c r="L525">
-        <v>51.25</v>
+        <v>49.39</v>
       </c>
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>539</v>
+        <v>451</v>
       </c>
       <c r="B526" t="s">
         <v>44</v>
       </c>
       <c r="C526">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D526">
-        <v>71</v>
-      </c>
-      <c r="E526">
-        <v>121356</v>
+        <v>97</v>
+      </c>
+      <c r="E526" s="3">
+        <v>118510</v>
       </c>
       <c r="F526">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G526">
         <v>0</v>
@@ -22044,30 +22071,30 @@
         <v>100</v>
       </c>
       <c r="J526">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="K526">
-        <v>23.91</v>
+        <v>24.96</v>
       </c>
       <c r="L526">
-        <v>75.3</v>
+        <v>75.040000000000006</v>
       </c>
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="B527" t="s">
         <v>44</v>
       </c>
       <c r="C527">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D527">
-        <v>86</v>
-      </c>
-      <c r="E527">
-        <v>111399</v>
+        <v>98</v>
+      </c>
+      <c r="E527" s="3">
+        <v>122106</v>
       </c>
       <c r="F527">
         <v>1</v>
@@ -22082,30 +22109,30 @@
         <v>100</v>
       </c>
       <c r="J527">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K527">
-        <v>53.15</v>
+        <v>4.55</v>
       </c>
       <c r="L527">
-        <v>46.65</v>
+        <v>95.45</v>
       </c>
     </row>
     <row r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="B528" t="s">
         <v>44</v>
       </c>
       <c r="C528">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D528">
-        <v>89</v>
-      </c>
-      <c r="E528">
-        <v>94779</v>
+        <v>98</v>
+      </c>
+      <c r="E528" s="3">
+        <v>139639</v>
       </c>
       <c r="F528">
         <v>1</v>
@@ -22123,27 +22150,27 @@
         <v>0</v>
       </c>
       <c r="K528">
-        <v>27</v>
+        <v>5.35</v>
       </c>
       <c r="L528">
-        <v>73</v>
+        <v>94.65</v>
       </c>
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>542</v>
+        <v>488</v>
       </c>
       <c r="B529" t="s">
         <v>44</v>
       </c>
       <c r="C529">
+        <v>89</v>
+      </c>
+      <c r="D529">
         <v>99</v>
       </c>
-      <c r="D529">
-        <v>92</v>
-      </c>
-      <c r="E529">
-        <v>99360</v>
+      <c r="E529" s="3">
+        <v>87046</v>
       </c>
       <c r="F529">
         <v>1</v>
@@ -22161,27 +22188,27 @@
         <v>0</v>
       </c>
       <c r="K529">
-        <v>46.59</v>
+        <v>66.239999999999995</v>
       </c>
       <c r="L529">
-        <v>53.41</v>
+        <v>33.76</v>
       </c>
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>543</v>
+        <v>490</v>
       </c>
       <c r="B530" t="s">
         <v>44</v>
       </c>
       <c r="C530">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D530">
-        <v>69</v>
-      </c>
-      <c r="E530">
-        <v>144061</v>
+        <v>99</v>
+      </c>
+      <c r="E530" s="3">
+        <v>122423</v>
       </c>
       <c r="F530">
         <v>1</v>
@@ -22199,27 +22226,27 @@
         <v>0</v>
       </c>
       <c r="K530">
-        <v>58.29</v>
+        <v>15.53</v>
       </c>
       <c r="L530">
-        <v>41.71</v>
+        <v>84.47</v>
       </c>
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="B531" t="s">
         <v>44</v>
       </c>
       <c r="C531">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D531">
-        <v>69</v>
-      </c>
-      <c r="E531">
-        <v>104854</v>
+        <v>99</v>
+      </c>
+      <c r="E531" s="3">
+        <v>184091</v>
       </c>
       <c r="F531">
         <v>1</v>
@@ -22237,27 +22264,27 @@
         <v>0</v>
       </c>
       <c r="K531">
-        <v>47.91</v>
+        <v>1.25</v>
       </c>
       <c r="L531">
-        <v>52.09</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="B532" t="s">
         <v>44</v>
       </c>
       <c r="C532">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D532">
-        <v>70</v>
-      </c>
-      <c r="E532">
-        <v>128912</v>
+        <v>99</v>
+      </c>
+      <c r="E532" s="3">
+        <v>103333</v>
       </c>
       <c r="F532">
         <v>1</v>
@@ -22275,27 +22302,27 @@
         <v>0</v>
       </c>
       <c r="K532">
-        <v>32.1</v>
+        <v>45.15</v>
       </c>
       <c r="L532">
-        <v>67.900000000000006</v>
+        <v>54.85</v>
       </c>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>546</v>
+        <v>503</v>
       </c>
       <c r="B533" t="s">
         <v>44</v>
       </c>
       <c r="C533">
+        <v>92</v>
+      </c>
+      <c r="D533">
         <v>100</v>
       </c>
-      <c r="D533">
-        <v>69</v>
-      </c>
-      <c r="E533">
-        <v>132373</v>
+      <c r="E533" s="3">
+        <v>92639</v>
       </c>
       <c r="F533">
         <v>1</v>
@@ -22313,27 +22340,27 @@
         <v>0</v>
       </c>
       <c r="K533">
-        <v>35.08</v>
+        <v>50.4</v>
       </c>
       <c r="L533">
-        <v>64.92</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="B534" t="s">
         <v>44</v>
       </c>
       <c r="C534">
+        <v>97</v>
+      </c>
+      <c r="D534">
         <v>100</v>
       </c>
-      <c r="D534">
-        <v>88</v>
-      </c>
-      <c r="E534">
-        <v>93311</v>
+      <c r="E534" s="3">
+        <v>96940</v>
       </c>
       <c r="F534">
         <v>1</v>
@@ -22351,14 +22378,13 @@
         <v>0</v>
       </c>
       <c r="K534">
-        <v>40.450000000000003</v>
+        <v>23.36</v>
       </c>
       <c r="L534">
-        <v>59.55</v>
+        <v>76.64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L534" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>